--- a/info/Plantilla_organizacion.xlsx
+++ b/info/Plantilla_organizacion.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antony\Dropbox\machine learnign\proyectos\predicion_casa\informacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asuazo\Desktop\casa\predicion_casa\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E634F899-50B5-41AE-8B4D-9E56805DF415}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="organizacion_bon_representation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="269">
   <si>
     <t>variable</t>
   </si>
@@ -817,61 +816,22 @@
     <t>no importa mucho, con una basta</t>
   </si>
   <si>
-    <t>miembros categoricas</t>
-  </si>
-  <si>
-    <t>1-STORY 1946 &amp; NEWER ALL STYLES</t>
-  </si>
-  <si>
-    <t>1-STORY 1945 &amp; OLDER</t>
-  </si>
-  <si>
-    <t>1-STORY W/FINISHED ATTIC ALL AGES</t>
-  </si>
-  <si>
-    <t>1-1/2 STORY - UNFINISHED ALL AGES</t>
-  </si>
-  <si>
-    <t>1-1/2 STORY FINISHED ALL AGES</t>
-  </si>
-  <si>
-    <t>2-STORY 1946 &amp; NEWER</t>
-  </si>
-  <si>
-    <t>2-STORY 1945 &amp; OLDER</t>
-  </si>
-  <si>
-    <t>2-1/2 STORY ALL AGES</t>
-  </si>
-  <si>
-    <t>SPLIT OR MULTI-LEVEL</t>
-  </si>
-  <si>
-    <t>SPLIT FOYER</t>
-  </si>
-  <si>
-    <t>DUPLEX - ALL STYLES AND AGES</t>
-  </si>
-  <si>
-    <t>1-STORY PUD (Planned Unit Development) - 1946 &amp; NEWER</t>
-  </si>
-  <si>
-    <t>1-1/2 STORY PUD - ALL AGES</t>
-  </si>
-  <si>
-    <t>2-STORY PUD - 1946 &amp; NEWER</t>
-  </si>
-  <si>
-    <t>PUD - MULTILEVEL - INCL SPLIT LEV/FOYER</t>
-  </si>
-  <si>
-    <t>20,30,40,45,50,60,70,75,80,85,90,120,150,160,180,190</t>
+    <t>nan defaut</t>
+  </si>
+  <si>
+    <t>true,ojo</t>
+  </si>
+  <si>
+    <t>ojo,true</t>
+  </si>
+  <si>
+    <t>observacion_rapida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1379,54 +1339,50 @@
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" xfId="38" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1447,9 +1403,7 @@
     <tableColumn id="2" name="definicion"/>
     <tableColumn id="3" name="descripcion"/>
     <tableColumn id="4" name="tipo"/>
-    <tableColumn id="7" name="miembros categoricas" dataDxfId="0">
-      <calculatedColumnFormula>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="8" name="nan defaut"/>
     <tableColumn id="5" name="espectativa"/>
     <tableColumn id="6" name="importancia"/>
   </tableColumns>
@@ -1754,25 +1708,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X80"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1796,7 +1750,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1810,7 +1764,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -1820,7 +1774,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1833,10 +1787,6 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
@@ -1844,56 +1794,8 @@
         <v>7</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>30</v>
-      </c>
-      <c r="K3">
-        <v>40</v>
-      </c>
-      <c r="L3">
-        <v>45</v>
-      </c>
-      <c r="M3">
-        <v>50</v>
-      </c>
-      <c r="N3">
-        <v>60</v>
-      </c>
-      <c r="O3">
-        <v>70</v>
-      </c>
-      <c r="P3">
-        <v>75</v>
-      </c>
-      <c r="Q3">
-        <v>80</v>
-      </c>
-      <c r="R3">
-        <v>85</v>
-      </c>
-      <c r="S3">
-        <v>90</v>
-      </c>
-      <c r="T3">
-        <v>120</v>
-      </c>
-      <c r="U3">
-        <v>150</v>
-      </c>
-      <c r="V3">
-        <v>160</v>
-      </c>
-      <c r="W3">
-        <v>180</v>
-      </c>
-      <c r="X3">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1903,10 +1805,6 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
@@ -1915,7 +1813,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1928,10 +1826,6 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
@@ -1941,14 +1835,8 @@
       <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I5">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1961,10 +1849,6 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F6" t="s">
         <v>27</v>
       </c>
@@ -1972,14 +1856,8 @@
         <v>1</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1992,10 +1870,6 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F7" t="s">
         <v>31</v>
       </c>
@@ -2003,14 +1877,8 @@
         <v>3</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2020,10 +1888,6 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F8" t="s">
         <v>34</v>
       </c>
@@ -2031,14 +1895,8 @@
         <v>9</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8">
-        <v>45</v>
-      </c>
-      <c r="J8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -2048,10 +1906,6 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F9" t="s">
         <v>38</v>
       </c>
@@ -2061,14 +1915,8 @@
       <c r="H9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I9">
-        <v>50</v>
-      </c>
-      <c r="J9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -2078,10 +1926,6 @@
       <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="E10" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F10" t="s">
         <v>38</v>
       </c>
@@ -2091,14 +1935,8 @@
       <c r="H10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I10">
-        <v>60</v>
-      </c>
-      <c r="J10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -2108,10 +1946,6 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F11" t="s">
         <v>45</v>
       </c>
@@ -2119,14 +1953,8 @@
         <v>4</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11">
-        <v>70</v>
-      </c>
-      <c r="J11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2136,10 +1964,6 @@
       <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F12" t="s">
         <v>45</v>
       </c>
@@ -2147,14 +1971,8 @@
         <v>4</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12">
-        <v>75</v>
-      </c>
-      <c r="J12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -2167,10 +1985,6 @@
       <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F13" t="s">
         <v>51</v>
       </c>
@@ -2178,14 +1992,8 @@
         <v>6</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13">
-        <v>80</v>
-      </c>
-      <c r="J13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2198,10 +2006,6 @@
       <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F14" t="s">
         <v>55</v>
       </c>
@@ -2209,14 +2013,8 @@
         <v>10</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14">
-        <v>85</v>
-      </c>
-      <c r="J14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2229,10 +2027,6 @@
       <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="E15" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F15" t="s">
         <v>59</v>
       </c>
@@ -2240,14 +2034,8 @@
         <v>5</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15">
-        <v>90</v>
-      </c>
-      <c r="J15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -2260,10 +2048,6 @@
       <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="E16" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F16" t="s">
         <v>63</v>
       </c>
@@ -2271,14 +2055,8 @@
         <v>3</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16">
-        <v>120</v>
-      </c>
-      <c r="J16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -2291,10 +2069,6 @@
       <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F17" t="s">
         <v>67</v>
       </c>
@@ -2304,14 +2078,8 @@
       <c r="H17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I17">
-        <v>150</v>
-      </c>
-      <c r="J17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -2321,10 +2089,6 @@
       <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F18" t="s">
         <v>71</v>
       </c>
@@ -2332,14 +2096,8 @@
         <v>9</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18">
-        <v>160</v>
-      </c>
-      <c r="J18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -2349,10 +2107,6 @@
       <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E19" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F19" t="s">
         <v>74</v>
       </c>
@@ -2360,14 +2114,8 @@
         <v>3</v>
       </c>
       <c r="H19" s="4"/>
-      <c r="I19">
-        <v>180</v>
-      </c>
-      <c r="J19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -2377,19 +2125,16 @@
       <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
+      <c r="E20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F20"/>
       <c r="G20">
         <v>6</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="I20">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -2402,10 +2147,6 @@
       <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F21" t="s">
         <v>80</v>
       </c>
@@ -2414,7 +2155,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2424,10 +2165,6 @@
       <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F22" t="s">
         <v>83</v>
       </c>
@@ -2436,7 +2173,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -2449,10 +2186,6 @@
       <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="E23" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F23" t="s">
         <v>87</v>
       </c>
@@ -2461,7 +2194,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -2474,10 +2207,6 @@
       <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="E24" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F24" t="s">
         <v>91</v>
       </c>
@@ -2488,7 +2217,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -2501,10 +2230,6 @@
       <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="E25" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F25" t="s">
         <v>96</v>
       </c>
@@ -2513,7 +2238,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -2526,10 +2251,6 @@
       <c r="D26" t="s">
         <v>9</v>
       </c>
-      <c r="E26" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F26" t="s">
         <v>99</v>
       </c>
@@ -2538,7 +2259,7 @@
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -2551,10 +2272,6 @@
       <c r="D27" t="s">
         <v>9</v>
       </c>
-      <c r="E27" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F27" t="s">
         <v>103</v>
       </c>
@@ -2563,7 +2280,7 @@
       </c>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2576,9 +2293,8 @@
       <c r="D28" t="s">
         <v>9</v>
       </c>
-      <c r="E28" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
+      <c r="E28" t="b">
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>107</v>
@@ -2588,7 +2304,7 @@
       </c>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -2601,10 +2317,6 @@
       <c r="D29" t="s">
         <v>9</v>
       </c>
-      <c r="E29" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F29" t="s">
         <v>111</v>
       </c>
@@ -2615,7 +2327,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -2628,10 +2340,6 @@
       <c r="D30" t="s">
         <v>9</v>
       </c>
-      <c r="E30" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F30" t="s">
         <v>116</v>
       </c>
@@ -2640,7 +2348,7 @@
       </c>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -2650,10 +2358,6 @@
       <c r="D31" t="s">
         <v>9</v>
       </c>
-      <c r="E31" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F31" t="s">
         <v>119</v>
       </c>
@@ -2662,7 +2366,7 @@
       </c>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -2671,10 +2375,6 @@
       </c>
       <c r="D32" t="s">
         <v>9</v>
-      </c>
-      <c r="E32" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
       </c>
       <c r="F32" t="s">
         <v>122</v>
@@ -2694,10 +2394,6 @@
       <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="E33" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F33" t="s">
         <v>125</v>
       </c>
@@ -2719,10 +2415,6 @@
       <c r="D34" t="s">
         <v>9</v>
       </c>
-      <c r="E34" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F34" t="s">
         <v>129</v>
       </c>
@@ -2744,10 +2436,6 @@
       <c r="D35" t="s">
         <v>9</v>
       </c>
-      <c r="E35" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F35" t="s">
         <v>129</v>
       </c>
@@ -2769,10 +2457,6 @@
       <c r="D36" t="s">
         <v>9</v>
       </c>
-      <c r="E36" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F36" t="s">
         <v>135</v>
       </c>
@@ -2794,10 +2478,6 @@
       <c r="D37" t="s">
         <v>21</v>
       </c>
-      <c r="E37" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F37" t="s">
         <v>135</v>
       </c>
@@ -2816,10 +2496,6 @@
       <c r="D38" t="s">
         <v>9</v>
       </c>
-      <c r="E38" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F38" t="s">
         <v>141</v>
       </c>
@@ -2838,10 +2514,6 @@
       <c r="D39" t="s">
         <v>9</v>
       </c>
-      <c r="E39" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F39" t="s">
         <v>144</v>
       </c>
@@ -2860,10 +2532,6 @@
       <c r="D40" t="s">
         <v>21</v>
       </c>
-      <c r="E40" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F40" t="s">
         <v>147</v>
       </c>
@@ -2884,10 +2552,6 @@
       <c r="D41" t="s">
         <v>9</v>
       </c>
-      <c r="E41" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F41" t="s">
         <v>151</v>
       </c>
@@ -2908,10 +2572,7 @@
       <c r="D42" t="s">
         <v>9</v>
       </c>
-      <c r="E42" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
+      <c r="F42"/>
       <c r="G42">
         <v>3</v>
       </c>
@@ -2927,10 +2588,10 @@
       <c r="D43" t="s">
         <v>9</v>
       </c>
-      <c r="E43" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
+      <c r="E43" t="s">
+        <v>267</v>
+      </c>
+      <c r="F43"/>
       <c r="G43">
         <v>4</v>
       </c>
@@ -2946,10 +2607,6 @@
       <c r="D44" t="s">
         <v>21</v>
       </c>
-      <c r="E44" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F44" t="s">
         <v>159</v>
       </c>
@@ -2968,10 +2625,10 @@
       <c r="D45" t="s">
         <v>9</v>
       </c>
-      <c r="E45" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45"/>
       <c r="G45">
         <v>10</v>
       </c>
@@ -2987,9 +2644,8 @@
       <c r="D46" t="s">
         <v>9</v>
       </c>
-      <c r="E46" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
+      <c r="E46" t="b">
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>164</v>
@@ -3009,10 +2665,10 @@
       <c r="D47" t="s">
         <v>9</v>
       </c>
-      <c r="E47" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47"/>
       <c r="G47">
         <v>7</v>
       </c>
@@ -3028,10 +2684,6 @@
       <c r="D48" t="s">
         <v>9</v>
       </c>
-      <c r="E48" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F48" t="s">
         <v>169</v>
       </c>
@@ -3050,10 +2702,6 @@
       <c r="D49" t="s">
         <v>9</v>
       </c>
-      <c r="E49" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F49" t="s">
         <v>172</v>
       </c>
@@ -3075,10 +2723,6 @@
       <c r="D50" t="s">
         <v>21</v>
       </c>
-      <c r="E50" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F50" t="s">
         <v>176</v>
       </c>
@@ -3100,10 +2744,6 @@
       <c r="D51" t="s">
         <v>9</v>
       </c>
-      <c r="E51" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F51" t="s">
         <v>180</v>
       </c>
@@ -3125,10 +2765,6 @@
       <c r="D52" t="s">
         <v>9</v>
       </c>
-      <c r="E52" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F52" t="s">
         <v>184</v>
       </c>
@@ -3150,10 +2786,6 @@
       <c r="D53" t="s">
         <v>9</v>
       </c>
-      <c r="E53" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F53" t="s">
         <v>188</v>
       </c>
@@ -3172,10 +2804,6 @@
       <c r="D54" t="s">
         <v>21</v>
       </c>
-      <c r="E54" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F54" t="s">
         <v>191</v>
       </c>
@@ -3194,10 +2822,6 @@
       <c r="D55" t="s">
         <v>21</v>
       </c>
-      <c r="E55" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F55" t="s">
         <v>191</v>
       </c>
@@ -3216,10 +2840,6 @@
       <c r="D56" t="s">
         <v>37</v>
       </c>
-      <c r="E56" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F56" t="s">
         <v>196</v>
       </c>
@@ -3238,10 +2858,6 @@
       <c r="D57" t="s">
         <v>37</v>
       </c>
-      <c r="E57" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F57" t="s">
         <v>199</v>
       </c>
@@ -3263,10 +2879,6 @@
       <c r="D58" t="s">
         <v>37</v>
       </c>
-      <c r="E58" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F58" t="s">
         <v>202</v>
       </c>
@@ -3288,10 +2900,6 @@
       <c r="D59" t="s">
         <v>205</v>
       </c>
-      <c r="E59" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F59" t="s">
         <v>206</v>
       </c>
@@ -3310,11 +2918,7 @@
       <c r="D60" t="s">
         <v>37</v>
       </c>
-      <c r="E60" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
-      <c r="G60"/>
+      <c r="F60"/>
       <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
@@ -3327,10 +2931,6 @@
       <c r="D61" t="s">
         <v>21</v>
       </c>
-      <c r="E61" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F61" t="s">
         <v>211</v>
       </c>
@@ -3349,10 +2949,7 @@
       <c r="D62" t="s">
         <v>21</v>
       </c>
-      <c r="E62" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
+      <c r="F62"/>
       <c r="G62">
         <v>9</v>
       </c>
@@ -3368,10 +2965,6 @@
       <c r="D63" t="s">
         <v>21</v>
       </c>
-      <c r="E63" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F63" t="s">
         <v>216</v>
       </c>
@@ -3393,9 +2986,8 @@
       <c r="D64" t="s">
         <v>9</v>
       </c>
-      <c r="E64" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
+      <c r="E64" t="b">
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>219</v>
@@ -3412,11 +3004,7 @@
       <c r="B65" t="s">
         <v>221</v>
       </c>
-      <c r="E65" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
-      <c r="G65"/>
+      <c r="F65"/>
       <c r="H65" s="8" t="s">
         <v>222</v>
       </c>
@@ -3434,10 +3022,6 @@
       <c r="D66" t="s">
         <v>21</v>
       </c>
-      <c r="E66" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F66" t="s">
         <v>226</v>
       </c>
@@ -3459,10 +3043,6 @@
       <c r="D67" t="s">
         <v>21</v>
       </c>
-      <c r="E67" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F67" t="s">
         <v>226</v>
       </c>
@@ -3481,10 +3061,6 @@
       <c r="D68" t="s">
         <v>21</v>
       </c>
-      <c r="E68" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F68" t="s">
         <v>231</v>
       </c>
@@ -3506,10 +3082,6 @@
       <c r="D69" t="s">
         <v>37</v>
       </c>
-      <c r="E69" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F69" t="s">
         <v>234</v>
       </c>
@@ -3531,10 +3103,6 @@
       <c r="D70" t="s">
         <v>37</v>
       </c>
-      <c r="E70" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F70" t="s">
         <v>237</v>
       </c>
@@ -3553,10 +3121,6 @@
       <c r="D71" t="s">
         <v>21</v>
       </c>
-      <c r="E71" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F71" t="s">
         <v>240</v>
       </c>
@@ -3578,10 +3142,6 @@
       <c r="D72" t="s">
         <v>9</v>
       </c>
-      <c r="E72" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F72" t="s">
         <v>244</v>
       </c>
@@ -3600,10 +3160,6 @@
       <c r="D73" t="s">
         <v>9</v>
       </c>
-      <c r="E73" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F73" t="s">
         <v>244</v>
       </c>
@@ -3622,10 +3178,6 @@
       <c r="D74" t="s">
         <v>21</v>
       </c>
-      <c r="E74" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F74" t="s">
         <v>249</v>
       </c>
@@ -3644,10 +3196,6 @@
       <c r="D75" t="s">
         <v>21</v>
       </c>
-      <c r="E75" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F75" t="s">
         <v>249</v>
       </c>
@@ -3666,10 +3214,7 @@
       <c r="D76" t="s">
         <v>21</v>
       </c>
-      <c r="E76" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
+      <c r="F76"/>
       <c r="G76">
         <v>8</v>
       </c>
@@ -3685,10 +3230,7 @@
       <c r="D77" t="s">
         <v>21</v>
       </c>
-      <c r="E77" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
+      <c r="F77"/>
       <c r="G77">
         <v>8</v>
       </c>
@@ -3704,10 +3246,6 @@
       <c r="D78" t="s">
         <v>37</v>
       </c>
-      <c r="E78" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
-      </c>
       <c r="F78" t="s">
         <v>257</v>
       </c>
@@ -3726,10 +3264,6 @@
       <c r="D79" t="s">
         <v>9</v>
       </c>
-      <c r="E79" t="str">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>true</v>
-      </c>
       <c r="F79" t="s">
         <v>260</v>
       </c>
@@ -3750,10 +3284,6 @@
       </c>
       <c r="D80" t="s">
         <v>37</v>
-      </c>
-      <c r="E80" t="b">
-        <f>IF(Tabla3[[#This Row],[tipo]]="categoria","true")</f>
-        <v>0</v>
       </c>
       <c r="F80" t="s">
         <v>264</v>

--- a/info/Plantilla_organizacion.xlsx
+++ b/info/Plantilla_organizacion.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="273">
   <si>
     <t>variable</t>
   </si>
@@ -826,13 +826,25 @@
   </si>
   <si>
     <t>observacion_rapida</t>
+  </si>
+  <si>
+    <t>clase</t>
+  </si>
+  <si>
+    <t>cardanilidad</t>
+  </si>
+  <si>
+    <t>Nota:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">este documento esta basado en La tipología de Chrisman </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -985,8 +997,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1166,6 +1185,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1327,7 +1352,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="22" applyFont="1"/>
@@ -1337,6 +1362,8 @@
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="21" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="20" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" xfId="38" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1396,13 +1423,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:G80" totalsRowShown="0">
-  <autoFilter ref="A1:G80"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:I80" totalsRowShown="0">
+  <autoFilter ref="A1:I80"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="variable"/>
     <tableColumn id="2" name="definicion"/>
     <tableColumn id="3" name="descripcion"/>
     <tableColumn id="4" name="tipo"/>
+    <tableColumn id="7" name="clase"/>
+    <tableColumn id="10" name="cardanilidad"/>
     <tableColumn id="8" name="nan defaut"/>
     <tableColumn id="5" name="espectativa"/>
     <tableColumn id="6" name="importancia"/>
@@ -1708,25 +1737,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1740,17 +1769,23 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" t="s">
         <v>265</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1763,18 +1798,18 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>268</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>10</v>
       </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1787,15 +1822,16 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3"/>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>7</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1805,15 +1841,16 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4"/>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1826,17 +1863,18 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5"/>
+      <c r="H5" t="s">
         <v>22</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1849,15 +1887,16 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6"/>
+      <c r="H6" t="s">
         <v>27</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1870,15 +1909,16 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7"/>
+      <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1888,15 +1928,16 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8"/>
+      <c r="H8" t="s">
         <v>34</v>
       </c>
-      <c r="G8">
-        <v>9</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1906,17 +1947,18 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9"/>
+      <c r="H9" t="s">
         <v>38</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1926,17 +1968,18 @@
       <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10"/>
+      <c r="H10" t="s">
         <v>38</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1946,15 +1989,16 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11"/>
+      <c r="H11" t="s">
         <v>45</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>4</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1964,15 +2008,16 @@
       <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12"/>
+      <c r="H12" t="s">
         <v>45</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>4</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1985,15 +2030,16 @@
       <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13"/>
+      <c r="H13" t="s">
         <v>51</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>6</v>
       </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2006,15 +2052,16 @@
       <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14"/>
+      <c r="H14" t="s">
         <v>55</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>10</v>
       </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2027,15 +2074,16 @@
       <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15"/>
+      <c r="H15" t="s">
         <v>59</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>5</v>
       </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -2048,15 +2096,16 @@
       <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16"/>
+      <c r="H16" t="s">
         <v>63</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -2069,17 +2118,18 @@
       <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17"/>
+      <c r="H17" t="s">
         <v>67</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>10</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -2089,15 +2139,16 @@
       <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18"/>
+      <c r="H18" t="s">
         <v>71</v>
       </c>
-      <c r="G18">
-        <v>9</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18">
+        <v>9</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -2107,15 +2158,16 @@
       <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19"/>
+      <c r="H19" t="s">
         <v>74</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>3</v>
       </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -2125,16 +2177,15 @@
       <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>266</v>
       </c>
-      <c r="F20"/>
-      <c r="G20">
+      <c r="I20">
         <v>6</v>
       </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -2147,15 +2198,16 @@
       <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21"/>
+      <c r="H21" t="s">
         <v>80</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>8</v>
       </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2165,15 +2217,16 @@
       <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22"/>
+      <c r="H22" t="s">
         <v>83</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>5.8</v>
       </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -2186,15 +2239,16 @@
       <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23"/>
+      <c r="H23" t="s">
         <v>87</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>7.5</v>
       </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -2207,17 +2261,18 @@
       <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24"/>
+      <c r="H24" t="s">
         <v>91</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>8</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -2230,15 +2285,16 @@
       <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25"/>
+      <c r="H25" t="s">
         <v>96</v>
       </c>
-      <c r="G25">
-        <v>9</v>
-      </c>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I25">
+        <v>9</v>
+      </c>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -2251,15 +2307,16 @@
       <c r="D26" t="s">
         <v>9</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26"/>
+      <c r="H26" t="s">
         <v>99</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>10</v>
       </c>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -2272,15 +2329,16 @@
       <c r="D27" t="s">
         <v>9</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27"/>
+      <c r="H27" t="s">
         <v>103</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>8</v>
       </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2293,18 +2351,18 @@
       <c r="D28" t="s">
         <v>9</v>
       </c>
-      <c r="E28" t="b">
+      <c r="G28" t="b">
         <v>1</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>107</v>
       </c>
-      <c r="G28">
-        <v>9</v>
-      </c>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I28">
+        <v>9</v>
+      </c>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -2317,17 +2375,18 @@
       <c r="D29" t="s">
         <v>9</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29"/>
+      <c r="H29" t="s">
         <v>111</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>4</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="J29" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -2340,15 +2399,16 @@
       <c r="D30" t="s">
         <v>9</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30"/>
+      <c r="H30" t="s">
         <v>116</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>2</v>
       </c>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -2358,15 +2418,16 @@
       <c r="D31" t="s">
         <v>9</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31"/>
+      <c r="H31" t="s">
         <v>119</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>3</v>
       </c>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -2376,15 +2437,16 @@
       <c r="D32" t="s">
         <v>9</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32"/>
+      <c r="H32" t="s">
         <v>122</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>7</v>
       </c>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>123</v>
       </c>
@@ -2394,15 +2456,16 @@
       <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33"/>
+      <c r="H33" t="s">
         <v>125</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>7</v>
       </c>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -2415,15 +2478,16 @@
       <c r="D34" t="s">
         <v>9</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34"/>
+      <c r="H34" t="s">
         <v>129</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>4</v>
       </c>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>130</v>
       </c>
@@ -2436,15 +2500,16 @@
       <c r="D35" t="s">
         <v>9</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35"/>
+      <c r="H35" t="s">
         <v>129</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>3</v>
       </c>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>132</v>
       </c>
@@ -2457,15 +2522,16 @@
       <c r="D36" t="s">
         <v>9</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36"/>
+      <c r="H36" t="s">
         <v>135</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>6</v>
       </c>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>136</v>
       </c>
@@ -2478,15 +2544,16 @@
       <c r="D37" t="s">
         <v>21</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37"/>
+      <c r="H37" t="s">
         <v>135</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>7</v>
       </c>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>139</v>
       </c>
@@ -2496,15 +2563,16 @@
       <c r="D38" t="s">
         <v>9</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38"/>
+      <c r="H38" t="s">
         <v>141</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>5</v>
       </c>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>142</v>
       </c>
@@ -2514,15 +2582,16 @@
       <c r="D39" t="s">
         <v>9</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39"/>
+      <c r="H39" t="s">
         <v>144</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>8.5</v>
       </c>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -2532,17 +2601,18 @@
       <c r="D40" t="s">
         <v>21</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40"/>
+      <c r="H40" t="s">
         <v>147</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>6</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="J40" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -2552,17 +2622,18 @@
       <c r="D41" t="s">
         <v>9</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41"/>
+      <c r="H41" t="s">
         <v>151</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>7</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="J41" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -2572,13 +2643,13 @@
       <c r="D42" t="s">
         <v>9</v>
       </c>
-      <c r="F42"/>
-      <c r="G42">
+      <c r="G42"/>
+      <c r="I42">
         <v>3</v>
       </c>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>155</v>
       </c>
@@ -2588,16 +2659,15 @@
       <c r="D43" t="s">
         <v>9</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>267</v>
       </c>
-      <c r="F43"/>
-      <c r="G43">
+      <c r="I43">
         <v>4</v>
       </c>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>157</v>
       </c>
@@ -2607,15 +2677,16 @@
       <c r="D44" t="s">
         <v>21</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44"/>
+      <c r="H44" t="s">
         <v>159</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>4</v>
       </c>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>160</v>
       </c>
@@ -2625,16 +2696,15 @@
       <c r="D45" t="s">
         <v>9</v>
       </c>
-      <c r="E45" t="b">
+      <c r="G45" t="b">
         <v>1</v>
       </c>
-      <c r="F45"/>
-      <c r="G45">
+      <c r="I45">
         <v>10</v>
       </c>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>162</v>
       </c>
@@ -2644,18 +2714,18 @@
       <c r="D46" t="s">
         <v>9</v>
       </c>
-      <c r="E46" t="b">
+      <c r="G46" t="b">
         <v>1</v>
       </c>
-      <c r="F46" t="s">
+      <c r="H46" t="s">
         <v>164</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>4</v>
       </c>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>165</v>
       </c>
@@ -2665,16 +2735,15 @@
       <c r="D47" t="s">
         <v>9</v>
       </c>
-      <c r="E47" t="b">
+      <c r="G47" t="b">
         <v>1</v>
       </c>
-      <c r="F47"/>
-      <c r="G47">
+      <c r="I47">
         <v>7</v>
       </c>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>167</v>
       </c>
@@ -2684,15 +2753,16 @@
       <c r="D48" t="s">
         <v>9</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48"/>
+      <c r="H48" t="s">
         <v>169</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>10</v>
       </c>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>170</v>
       </c>
@@ -2702,15 +2772,16 @@
       <c r="D49" t="s">
         <v>9</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49"/>
+      <c r="H49" t="s">
         <v>172</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>10</v>
       </c>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>173</v>
       </c>
@@ -2723,15 +2794,16 @@
       <c r="D50" t="s">
         <v>21</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50"/>
+      <c r="H50" t="s">
         <v>176</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>5.5</v>
       </c>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>177</v>
       </c>
@@ -2744,15 +2816,16 @@
       <c r="D51" t="s">
         <v>9</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51"/>
+      <c r="H51" t="s">
         <v>180</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>10</v>
       </c>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>181</v>
       </c>
@@ -2765,15 +2838,16 @@
       <c r="D52" t="s">
         <v>9</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52"/>
+      <c r="H52" t="s">
         <v>184</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>2</v>
       </c>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>185</v>
       </c>
@@ -2786,15 +2860,16 @@
       <c r="D53" t="s">
         <v>9</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53"/>
+      <c r="H53" t="s">
         <v>188</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>8</v>
       </c>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>189</v>
       </c>
@@ -2804,15 +2879,16 @@
       <c r="D54" t="s">
         <v>21</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54"/>
+      <c r="H54" t="s">
         <v>191</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>10</v>
       </c>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>192</v>
       </c>
@@ -2822,15 +2898,16 @@
       <c r="D55" t="s">
         <v>21</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55"/>
+      <c r="H55" t="s">
         <v>191</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>10</v>
       </c>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J55" s="8"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>194</v>
       </c>
@@ -2840,15 +2917,16 @@
       <c r="D56" t="s">
         <v>37</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56"/>
+      <c r="H56" t="s">
         <v>196</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>10</v>
       </c>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>197</v>
       </c>
@@ -2858,15 +2936,16 @@
       <c r="D57" t="s">
         <v>37</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57"/>
+      <c r="H57" t="s">
         <v>199</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>10</v>
       </c>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>200</v>
       </c>
@@ -2879,15 +2958,16 @@
       <c r="D58" t="s">
         <v>37</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58"/>
+      <c r="H58" t="s">
         <v>202</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>10</v>
       </c>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -2900,15 +2980,16 @@
       <c r="D59" t="s">
         <v>205</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59"/>
+      <c r="H59" t="s">
         <v>206</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>10</v>
       </c>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>207</v>
       </c>
@@ -2918,10 +2999,10 @@
       <c r="D60" t="s">
         <v>37</v>
       </c>
-      <c r="F60"/>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G60"/>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>209</v>
       </c>
@@ -2931,15 +3012,16 @@
       <c r="D61" t="s">
         <v>21</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61"/>
+      <c r="H61" t="s">
         <v>211</v>
       </c>
-      <c r="G61">
-        <v>9</v>
-      </c>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I61">
+        <v>9</v>
+      </c>
+      <c r="J61" s="8"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>212</v>
       </c>
@@ -2949,13 +3031,13 @@
       <c r="D62" t="s">
         <v>21</v>
       </c>
-      <c r="F62"/>
-      <c r="G62">
-        <v>9</v>
-      </c>
-      <c r="H62" s="8"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G62"/>
+      <c r="I62">
+        <v>9</v>
+      </c>
+      <c r="J62" s="8"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>214</v>
       </c>
@@ -2965,15 +3047,16 @@
       <c r="D63" t="s">
         <v>21</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63"/>
+      <c r="H63" t="s">
         <v>216</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>10</v>
       </c>
-      <c r="H63" s="8"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>217</v>
       </c>
@@ -2986,30 +3069,30 @@
       <c r="D64" t="s">
         <v>9</v>
       </c>
-      <c r="E64" t="b">
+      <c r="G64" t="b">
         <v>1</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
         <v>219</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>10</v>
       </c>
-      <c r="H64" s="8"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J64" s="8"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>220</v>
       </c>
       <c r="B65" t="s">
         <v>221</v>
       </c>
-      <c r="F65"/>
-      <c r="H65" s="8" t="s">
+      <c r="G65"/>
+      <c r="J65" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>223</v>
       </c>
@@ -3022,15 +3105,16 @@
       <c r="D66" t="s">
         <v>21</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66"/>
+      <c r="H66" t="s">
         <v>226</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>8</v>
       </c>
-      <c r="H66" s="8"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J66" s="8"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>227</v>
       </c>
@@ -3043,15 +3127,16 @@
       <c r="D67" t="s">
         <v>21</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67"/>
+      <c r="H67" t="s">
         <v>226</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>8</v>
       </c>
-      <c r="H67" s="8"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J67" s="8"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>229</v>
       </c>
@@ -3061,15 +3146,16 @@
       <c r="D68" t="s">
         <v>21</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68"/>
+      <c r="H68" t="s">
         <v>231</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <v>10</v>
       </c>
-      <c r="H68" s="8"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J68" s="8"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -3082,15 +3168,16 @@
       <c r="D69" t="s">
         <v>37</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69"/>
+      <c r="H69" t="s">
         <v>234</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>8</v>
       </c>
-      <c r="H69" s="8"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J69" s="8"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>235</v>
       </c>
@@ -3103,15 +3190,16 @@
       <c r="D70" t="s">
         <v>37</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70"/>
+      <c r="H70" t="s">
         <v>237</v>
       </c>
-      <c r="G70">
-        <v>9</v>
-      </c>
-      <c r="H70" s="8"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I70">
+        <v>9</v>
+      </c>
+      <c r="J70" s="8"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>238</v>
       </c>
@@ -3121,15 +3209,16 @@
       <c r="D71" t="s">
         <v>21</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71"/>
+      <c r="H71" t="s">
         <v>240</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>10</v>
       </c>
-      <c r="H71" s="8"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J71" s="8"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>241</v>
       </c>
@@ -3142,15 +3231,16 @@
       <c r="D72" t="s">
         <v>9</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72"/>
+      <c r="H72" t="s">
         <v>244</v>
       </c>
-      <c r="G72">
-        <v>9</v>
-      </c>
-      <c r="H72" s="8"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I72">
+        <v>9</v>
+      </c>
+      <c r="J72" s="8"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>245</v>
       </c>
@@ -3160,15 +3250,16 @@
       <c r="D73" t="s">
         <v>9</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73"/>
+      <c r="H73" t="s">
         <v>244</v>
       </c>
-      <c r="G73">
-        <v>9</v>
-      </c>
-      <c r="H73" s="8"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I73">
+        <v>9</v>
+      </c>
+      <c r="J73" s="8"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>247</v>
       </c>
@@ -3178,15 +3269,16 @@
       <c r="D74" t="s">
         <v>21</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74"/>
+      <c r="H74" t="s">
         <v>249</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>6</v>
       </c>
-      <c r="H74" s="8"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J74" s="8"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>250</v>
       </c>
@@ -3196,15 +3288,16 @@
       <c r="D75" t="s">
         <v>21</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75"/>
+      <c r="H75" t="s">
         <v>249</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <v>7</v>
       </c>
-      <c r="H75" s="8"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J75" s="8"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>252</v>
       </c>
@@ -3214,13 +3307,13 @@
       <c r="D76" t="s">
         <v>21</v>
       </c>
-      <c r="F76"/>
-      <c r="G76">
+      <c r="G76"/>
+      <c r="I76">
         <v>8</v>
       </c>
-      <c r="H76" s="8"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J76" s="8"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>253</v>
       </c>
@@ -3230,13 +3323,13 @@
       <c r="D77" t="s">
         <v>21</v>
       </c>
-      <c r="F77"/>
-      <c r="G77">
+      <c r="G77"/>
+      <c r="I77">
         <v>8</v>
       </c>
-      <c r="H77" s="8"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J77" s="8"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>255</v>
       </c>
@@ -3246,15 +3339,16 @@
       <c r="D78" t="s">
         <v>37</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78"/>
+      <c r="H78" t="s">
         <v>257</v>
       </c>
-      <c r="G78">
+      <c r="I78">
         <v>7</v>
       </c>
-      <c r="H78" s="8"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J78" s="8"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>258</v>
       </c>
@@ -3264,15 +3358,16 @@
       <c r="D79" t="s">
         <v>9</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79"/>
+      <c r="H79" t="s">
         <v>260</v>
       </c>
-      <c r="G79">
-        <v>9</v>
-      </c>
-      <c r="H79" s="8"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I79">
+        <v>9</v>
+      </c>
+      <c r="J79" s="8"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>261</v>
       </c>
@@ -3285,13 +3380,26 @@
       <c r="D80" t="s">
         <v>37</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80"/>
+      <c r="H80" t="s">
         <v>264</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <v>3</v>
       </c>
-      <c r="H80" s="8"/>
+      <c r="J80" s="8"/>
+    </row>
+    <row r="83" spans="1:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A83" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/info/Plantilla_organizacion.xlsx
+++ b/info/Plantilla_organizacion.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="281">
   <si>
     <t>variable</t>
   </si>
@@ -838,6 +838,30 @@
   </si>
   <si>
     <t xml:space="preserve">este documento esta basado en La tipología de Chrisman </t>
+  </si>
+  <si>
+    <t>nominal</t>
+  </si>
+  <si>
+    <t>alta</t>
+  </si>
+  <si>
+    <t>cantidad cardanilidad</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>graduada membrecia</t>
+  </si>
+  <si>
+    <t>numerico</t>
+  </si>
+  <si>
+    <t>baja</t>
+  </si>
+  <si>
+    <t>ordinal</t>
   </si>
 </sst>
 </file>
@@ -1423,15 +1447,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:I80" totalsRowShown="0">
-  <autoFilter ref="A1:I80"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:K80" totalsRowShown="0">
+  <autoFilter ref="A1:K80">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="OverallQual"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="11">
     <tableColumn id="1" name="variable"/>
     <tableColumn id="2" name="definicion"/>
     <tableColumn id="3" name="descripcion"/>
     <tableColumn id="4" name="tipo"/>
     <tableColumn id="7" name="clase"/>
+    <tableColumn id="11" name="graduada membrecia"/>
     <tableColumn id="10" name="cardanilidad"/>
+    <tableColumn id="9" name="cantidad cardanilidad"/>
     <tableColumn id="8" name="nan defaut"/>
     <tableColumn id="5" name="espectativa"/>
     <tableColumn id="6" name="importancia"/>
@@ -1737,25 +1769,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1772,20 +1805,26 @@
         <v>269</v>
       </c>
       <c r="F1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" t="s">
         <v>270</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" t="s">
         <v>265</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1798,18 +1837,27 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" t="s">
+        <v>273</v>
+      </c>
       <c r="G2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
         <v>268</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>10</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1822,16 +1870,24 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="G3"/>
-      <c r="H3" t="s">
+      <c r="E3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>7</v>
       </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1842,15 +1898,15 @@
         <v>9</v>
       </c>
       <c r="G4"/>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>17</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1863,18 +1919,21 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
+      <c r="E5" t="s">
+        <v>278</v>
+      </c>
       <c r="G5"/>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1887,16 +1946,24 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="G6"/>
-      <c r="H6" t="s">
+      <c r="E6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
         <v>27</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1910,15 +1977,15 @@
         <v>9</v>
       </c>
       <c r="G7"/>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>31</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1929,15 +1996,15 @@
         <v>9</v>
       </c>
       <c r="G8"/>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>34</v>
       </c>
-      <c r="I8">
-        <v>9</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8">
+        <v>9</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1948,17 +2015,17 @@
         <v>37</v>
       </c>
       <c r="G9"/>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>38</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>1</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1969,17 +2036,17 @@
         <v>37</v>
       </c>
       <c r="G10"/>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>38</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>1</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1990,15 +2057,15 @@
         <v>9</v>
       </c>
       <c r="G11"/>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>45</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>4</v>
       </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2009,15 +2076,15 @@
         <v>9</v>
       </c>
       <c r="G12"/>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>45</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>4</v>
       </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -2030,16 +2097,24 @@
       <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="G13"/>
-      <c r="H13" t="s">
+      <c r="E13" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" t="s">
+        <v>276</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
         <v>51</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>6</v>
       </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2053,15 +2128,15 @@
         <v>9</v>
       </c>
       <c r="G14"/>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>55</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>10</v>
       </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2075,15 +2150,15 @@
         <v>37</v>
       </c>
       <c r="G15"/>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>59</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>5</v>
       </c>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -2097,15 +2172,15 @@
         <v>37</v>
       </c>
       <c r="G16"/>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>63</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>3</v>
       </c>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -2119,17 +2194,17 @@
         <v>9</v>
       </c>
       <c r="G17"/>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>67</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>10</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -2140,15 +2215,15 @@
         <v>9</v>
       </c>
       <c r="G18"/>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>71</v>
       </c>
-      <c r="I18">
-        <v>9</v>
-      </c>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18">
+        <v>9</v>
+      </c>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -2159,15 +2234,15 @@
         <v>21</v>
       </c>
       <c r="G19"/>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>74</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>3</v>
       </c>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -2177,15 +2252,16 @@
       <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20"/>
+      <c r="I20" t="s">
         <v>266</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>6</v>
       </c>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -2199,15 +2275,15 @@
         <v>9</v>
       </c>
       <c r="G21"/>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>80</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>8</v>
       </c>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2218,15 +2294,15 @@
         <v>9</v>
       </c>
       <c r="G22"/>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>83</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>5.8</v>
       </c>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -2239,16 +2315,24 @@
       <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="G23"/>
-      <c r="H23" t="s">
+      <c r="E23" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23" t="s">
+        <v>276</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="J23" t="s">
         <v>87</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>7.5</v>
       </c>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -2261,18 +2345,26 @@
       <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="G24"/>
-      <c r="H24" t="s">
+      <c r="E24" t="s">
+        <v>273</v>
+      </c>
+      <c r="G24" t="s">
+        <v>274</v>
+      </c>
+      <c r="H24">
+        <v>25</v>
+      </c>
+      <c r="J24" t="s">
         <v>91</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>8</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="L24" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -2285,16 +2377,24 @@
       <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="G25"/>
-      <c r="H25" t="s">
+      <c r="E25" t="s">
+        <v>273</v>
+      </c>
+      <c r="G25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+      <c r="J25" t="s">
         <v>96</v>
       </c>
-      <c r="I25">
-        <v>9</v>
-      </c>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K25">
+        <v>9</v>
+      </c>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -2307,16 +2407,24 @@
       <c r="D26" t="s">
         <v>9</v>
       </c>
-      <c r="G26"/>
-      <c r="H26" t="s">
+      <c r="E26" t="s">
+        <v>273</v>
+      </c>
+      <c r="G26" t="s">
+        <v>276</v>
+      </c>
+      <c r="H26">
+        <v>9</v>
+      </c>
+      <c r="J26" t="s">
         <v>99</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>10</v>
       </c>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -2329,16 +2437,24 @@
       <c r="D27" t="s">
         <v>9</v>
       </c>
-      <c r="G27"/>
-      <c r="H27" t="s">
+      <c r="E27" t="s">
+        <v>273</v>
+      </c>
+      <c r="G27" t="s">
+        <v>279</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
         <v>103</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>8</v>
       </c>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2351,18 +2467,27 @@
       <c r="D28" t="s">
         <v>9</v>
       </c>
-      <c r="G28" t="b">
+      <c r="E28" t="s">
+        <v>273</v>
+      </c>
+      <c r="G28" t="s">
+        <v>279</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28" t="b">
         <v>1</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
         <v>107</v>
       </c>
-      <c r="I28">
-        <v>9</v>
-      </c>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K28">
+        <v>9</v>
+      </c>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -2375,18 +2500,26 @@
       <c r="D29" t="s">
         <v>9</v>
       </c>
-      <c r="G29"/>
-      <c r="H29" t="s">
+      <c r="E29" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" t="s">
+        <v>279</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="J29" t="s">
         <v>111</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>4</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="L29" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -2399,16 +2532,24 @@
       <c r="D30" t="s">
         <v>9</v>
       </c>
-      <c r="G30"/>
-      <c r="H30" t="s">
+      <c r="E30" t="s">
+        <v>273</v>
+      </c>
+      <c r="G30" t="s">
+        <v>279</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="J30" t="s">
         <v>116</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>2</v>
       </c>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -2419,15 +2560,15 @@
         <v>9</v>
       </c>
       <c r="G31"/>
-      <c r="H31" t="s">
+      <c r="J31" t="s">
         <v>119</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>3</v>
       </c>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -2438,15 +2579,15 @@
         <v>9</v>
       </c>
       <c r="G32"/>
-      <c r="H32" t="s">
+      <c r="J32" t="s">
         <v>122</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>7</v>
       </c>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>123</v>
       </c>
@@ -2457,15 +2598,15 @@
         <v>9</v>
       </c>
       <c r="G33"/>
-      <c r="H33" t="s">
+      <c r="J33" t="s">
         <v>125</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>7</v>
       </c>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -2479,15 +2620,15 @@
         <v>9</v>
       </c>
       <c r="G34"/>
-      <c r="H34" t="s">
+      <c r="J34" t="s">
         <v>129</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>4</v>
       </c>
-      <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>130</v>
       </c>
@@ -2501,15 +2642,15 @@
         <v>9</v>
       </c>
       <c r="G35"/>
-      <c r="H35" t="s">
+      <c r="J35" t="s">
         <v>129</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>3</v>
       </c>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>132</v>
       </c>
@@ -2523,15 +2664,15 @@
         <v>9</v>
       </c>
       <c r="G36"/>
-      <c r="H36" t="s">
+      <c r="J36" t="s">
         <v>135</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>6</v>
       </c>
-      <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>136</v>
       </c>
@@ -2545,15 +2686,15 @@
         <v>21</v>
       </c>
       <c r="G37"/>
-      <c r="H37" t="s">
+      <c r="J37" t="s">
         <v>135</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>7</v>
       </c>
-      <c r="J37" s="7"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>139</v>
       </c>
@@ -2564,15 +2705,15 @@
         <v>9</v>
       </c>
       <c r="G38"/>
-      <c r="H38" t="s">
+      <c r="J38" t="s">
         <v>141</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>5</v>
       </c>
-      <c r="J38" s="7"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>142</v>
       </c>
@@ -2583,15 +2724,15 @@
         <v>9</v>
       </c>
       <c r="G39"/>
-      <c r="H39" t="s">
+      <c r="J39" t="s">
         <v>144</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>8.5</v>
       </c>
-      <c r="J39" s="7"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -2602,17 +2743,17 @@
         <v>21</v>
       </c>
       <c r="G40"/>
-      <c r="H40" t="s">
+      <c r="J40" t="s">
         <v>147</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>6</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -2623,17 +2764,17 @@
         <v>9</v>
       </c>
       <c r="G41"/>
-      <c r="H41" t="s">
+      <c r="J41" t="s">
         <v>151</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>7</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -2644,12 +2785,12 @@
         <v>9</v>
       </c>
       <c r="G42"/>
-      <c r="I42">
+      <c r="K42">
         <v>3</v>
       </c>
-      <c r="J42" s="7"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>155</v>
       </c>
@@ -2659,15 +2800,16 @@
       <c r="D43" t="s">
         <v>9</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43"/>
+      <c r="I43" t="s">
         <v>267</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>4</v>
       </c>
-      <c r="J43" s="7"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>157</v>
       </c>
@@ -2678,15 +2820,15 @@
         <v>21</v>
       </c>
       <c r="G44"/>
-      <c r="H44" t="s">
+      <c r="J44" t="s">
         <v>159</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>4</v>
       </c>
-      <c r="J44" s="7"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>160</v>
       </c>
@@ -2696,15 +2838,16 @@
       <c r="D45" t="s">
         <v>9</v>
       </c>
-      <c r="G45" t="b">
+      <c r="G45"/>
+      <c r="I45" t="b">
         <v>1</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>10</v>
       </c>
-      <c r="J45" s="7"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>162</v>
       </c>
@@ -2714,18 +2857,19 @@
       <c r="D46" t="s">
         <v>9</v>
       </c>
-      <c r="G46" t="b">
+      <c r="G46"/>
+      <c r="I46" t="b">
         <v>1</v>
       </c>
-      <c r="H46" t="s">
+      <c r="J46" t="s">
         <v>164</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>4</v>
       </c>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>165</v>
       </c>
@@ -2735,15 +2879,16 @@
       <c r="D47" t="s">
         <v>9</v>
       </c>
-      <c r="G47" t="b">
+      <c r="G47"/>
+      <c r="I47" t="b">
         <v>1</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>7</v>
       </c>
-      <c r="J47" s="7"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>167</v>
       </c>
@@ -2754,15 +2899,15 @@
         <v>9</v>
       </c>
       <c r="G48"/>
-      <c r="H48" t="s">
+      <c r="J48" t="s">
         <v>169</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>10</v>
       </c>
-      <c r="J48" s="7"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>170</v>
       </c>
@@ -2773,15 +2918,15 @@
         <v>9</v>
       </c>
       <c r="G49"/>
-      <c r="H49" t="s">
+      <c r="J49" t="s">
         <v>172</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>10</v>
       </c>
-      <c r="J49" s="7"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L49" s="7"/>
+    </row>
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>173</v>
       </c>
@@ -2794,16 +2939,19 @@
       <c r="D50" t="s">
         <v>21</v>
       </c>
+      <c r="E50" t="s">
+        <v>278</v>
+      </c>
       <c r="G50"/>
-      <c r="H50" t="s">
+      <c r="J50" t="s">
         <v>176</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>5.5</v>
       </c>
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L50" s="8"/>
+    </row>
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>177</v>
       </c>
@@ -2816,16 +2964,24 @@
       <c r="D51" t="s">
         <v>9</v>
       </c>
-      <c r="G51"/>
-      <c r="H51" t="s">
+      <c r="E51" t="s">
+        <v>273</v>
+      </c>
+      <c r="G51" t="s">
+        <v>279</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="J51" t="s">
         <v>180</v>
       </c>
-      <c r="I51">
+      <c r="K51">
         <v>10</v>
       </c>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L51" s="8"/>
+    </row>
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>181</v>
       </c>
@@ -2838,16 +2994,24 @@
       <c r="D52" t="s">
         <v>9</v>
       </c>
-      <c r="G52"/>
-      <c r="H52" t="s">
+      <c r="E52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G52" t="s">
+        <v>279</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="J52" t="s">
         <v>184</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>2</v>
       </c>
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>185</v>
       </c>
@@ -2860,16 +3024,24 @@
       <c r="D53" t="s">
         <v>9</v>
       </c>
-      <c r="G53"/>
-      <c r="H53" t="s">
+      <c r="E53" t="s">
+        <v>273</v>
+      </c>
+      <c r="G53" t="s">
+        <v>276</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="J53" t="s">
         <v>188</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>8</v>
       </c>
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L53" s="8"/>
+    </row>
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>189</v>
       </c>
@@ -2880,15 +3052,15 @@
         <v>21</v>
       </c>
       <c r="G54"/>
-      <c r="H54" t="s">
+      <c r="J54" t="s">
         <v>191</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>10</v>
       </c>
-      <c r="J54" s="8"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L54" s="8"/>
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>192</v>
       </c>
@@ -2899,15 +3071,15 @@
         <v>21</v>
       </c>
       <c r="G55"/>
-      <c r="H55" t="s">
+      <c r="J55" t="s">
         <v>191</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>10</v>
       </c>
-      <c r="J55" s="8"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L55" s="8"/>
+    </row>
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>194</v>
       </c>
@@ -2918,15 +3090,15 @@
         <v>37</v>
       </c>
       <c r="G56"/>
-      <c r="H56" t="s">
+      <c r="J56" t="s">
         <v>196</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>10</v>
       </c>
-      <c r="J56" s="8"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L56" s="8"/>
+    </row>
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>197</v>
       </c>
@@ -2937,15 +3109,15 @@
         <v>37</v>
       </c>
       <c r="G57"/>
-      <c r="H57" t="s">
+      <c r="J57" t="s">
         <v>199</v>
       </c>
-      <c r="I57">
+      <c r="K57">
         <v>10</v>
       </c>
-      <c r="J57" s="8"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L57" s="8"/>
+    </row>
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>200</v>
       </c>
@@ -2959,15 +3131,15 @@
         <v>37</v>
       </c>
       <c r="G58"/>
-      <c r="H58" t="s">
+      <c r="J58" t="s">
         <v>202</v>
       </c>
-      <c r="I58">
+      <c r="K58">
         <v>10</v>
       </c>
-      <c r="J58" s="8"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L58" s="8"/>
+    </row>
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -2981,15 +3153,15 @@
         <v>205</v>
       </c>
       <c r="G59"/>
-      <c r="H59" t="s">
+      <c r="J59" t="s">
         <v>206</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>10</v>
       </c>
-      <c r="J59" s="8"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L59" s="8"/>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>207</v>
       </c>
@@ -3000,9 +3172,9 @@
         <v>37</v>
       </c>
       <c r="G60"/>
-      <c r="J60" s="8"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L60" s="8"/>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>209</v>
       </c>
@@ -3013,15 +3185,15 @@
         <v>21</v>
       </c>
       <c r="G61"/>
-      <c r="H61" t="s">
+      <c r="J61" t="s">
         <v>211</v>
       </c>
-      <c r="I61">
-        <v>9</v>
-      </c>
-      <c r="J61" s="8"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K61">
+        <v>9</v>
+      </c>
+      <c r="L61" s="8"/>
+    </row>
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>212</v>
       </c>
@@ -3032,12 +3204,12 @@
         <v>21</v>
       </c>
       <c r="G62"/>
-      <c r="I62">
-        <v>9</v>
-      </c>
-      <c r="J62" s="8"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K62">
+        <v>9</v>
+      </c>
+      <c r="L62" s="8"/>
+    </row>
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>214</v>
       </c>
@@ -3048,15 +3220,15 @@
         <v>21</v>
       </c>
       <c r="G63"/>
-      <c r="H63" t="s">
+      <c r="J63" t="s">
         <v>216</v>
       </c>
-      <c r="I63">
+      <c r="K63">
         <v>10</v>
       </c>
-      <c r="J63" s="8"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L63" s="8"/>
+    </row>
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>217</v>
       </c>
@@ -3069,18 +3241,19 @@
       <c r="D64" t="s">
         <v>9</v>
       </c>
-      <c r="G64" t="b">
+      <c r="G64"/>
+      <c r="I64" t="b">
         <v>1</v>
       </c>
-      <c r="H64" t="s">
+      <c r="J64" t="s">
         <v>219</v>
       </c>
-      <c r="I64">
+      <c r="K64">
         <v>10</v>
       </c>
-      <c r="J64" s="8"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L64" s="8"/>
+    </row>
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>220</v>
       </c>
@@ -3088,11 +3261,11 @@
         <v>221</v>
       </c>
       <c r="G65"/>
-      <c r="J65" s="8" t="s">
+      <c r="L65" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>223</v>
       </c>
@@ -3106,15 +3279,15 @@
         <v>21</v>
       </c>
       <c r="G66"/>
-      <c r="H66" t="s">
+      <c r="J66" t="s">
         <v>226</v>
       </c>
-      <c r="I66">
+      <c r="K66">
         <v>8</v>
       </c>
-      <c r="J66" s="8"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L66" s="8"/>
+    </row>
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>227</v>
       </c>
@@ -3128,15 +3301,15 @@
         <v>21</v>
       </c>
       <c r="G67"/>
-      <c r="H67" t="s">
+      <c r="J67" t="s">
         <v>226</v>
       </c>
-      <c r="I67">
+      <c r="K67">
         <v>8</v>
       </c>
-      <c r="J67" s="8"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L67" s="8"/>
+    </row>
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>229</v>
       </c>
@@ -3147,15 +3320,15 @@
         <v>21</v>
       </c>
       <c r="G68"/>
-      <c r="H68" t="s">
+      <c r="J68" t="s">
         <v>231</v>
       </c>
-      <c r="I68">
+      <c r="K68">
         <v>10</v>
       </c>
-      <c r="J68" s="8"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L68" s="8"/>
+    </row>
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -3169,15 +3342,15 @@
         <v>37</v>
       </c>
       <c r="G69"/>
-      <c r="H69" t="s">
+      <c r="J69" t="s">
         <v>234</v>
       </c>
-      <c r="I69">
+      <c r="K69">
         <v>8</v>
       </c>
-      <c r="J69" s="8"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L69" s="8"/>
+    </row>
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>235</v>
       </c>
@@ -3191,15 +3364,15 @@
         <v>37</v>
       </c>
       <c r="G70"/>
-      <c r="H70" t="s">
+      <c r="J70" t="s">
         <v>237</v>
       </c>
-      <c r="I70">
-        <v>9</v>
-      </c>
-      <c r="J70" s="8"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K70">
+        <v>9</v>
+      </c>
+      <c r="L70" s="8"/>
+    </row>
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>238</v>
       </c>
@@ -3210,15 +3383,15 @@
         <v>21</v>
       </c>
       <c r="G71"/>
-      <c r="H71" t="s">
+      <c r="J71" t="s">
         <v>240</v>
       </c>
-      <c r="I71">
+      <c r="K71">
         <v>10</v>
       </c>
-      <c r="J71" s="8"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L71" s="8"/>
+    </row>
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>241</v>
       </c>
@@ -3232,15 +3405,15 @@
         <v>9</v>
       </c>
       <c r="G72"/>
-      <c r="H72" t="s">
+      <c r="J72" t="s">
         <v>244</v>
       </c>
-      <c r="I72">
-        <v>9</v>
-      </c>
-      <c r="J72" s="8"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K72">
+        <v>9</v>
+      </c>
+      <c r="L72" s="8"/>
+    </row>
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>245</v>
       </c>
@@ -3251,15 +3424,15 @@
         <v>9</v>
       </c>
       <c r="G73"/>
-      <c r="H73" t="s">
+      <c r="J73" t="s">
         <v>244</v>
       </c>
-      <c r="I73">
-        <v>9</v>
-      </c>
-      <c r="J73" s="8"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K73">
+        <v>9</v>
+      </c>
+      <c r="L73" s="8"/>
+    </row>
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>247</v>
       </c>
@@ -3270,15 +3443,15 @@
         <v>21</v>
       </c>
       <c r="G74"/>
-      <c r="H74" t="s">
+      <c r="J74" t="s">
         <v>249</v>
       </c>
-      <c r="I74">
+      <c r="K74">
         <v>6</v>
       </c>
-      <c r="J74" s="8"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L74" s="8"/>
+    </row>
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>250</v>
       </c>
@@ -3289,15 +3462,15 @@
         <v>21</v>
       </c>
       <c r="G75"/>
-      <c r="H75" t="s">
+      <c r="J75" t="s">
         <v>249</v>
       </c>
-      <c r="I75">
+      <c r="K75">
         <v>7</v>
       </c>
-      <c r="J75" s="8"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L75" s="8"/>
+    </row>
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>252</v>
       </c>
@@ -3308,12 +3481,12 @@
         <v>21</v>
       </c>
       <c r="G76"/>
-      <c r="I76">
+      <c r="K76">
         <v>8</v>
       </c>
-      <c r="J76" s="8"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L76" s="8"/>
+    </row>
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>253</v>
       </c>
@@ -3324,12 +3497,12 @@
         <v>21</v>
       </c>
       <c r="G77"/>
-      <c r="I77">
+      <c r="K77">
         <v>8</v>
       </c>
-      <c r="J77" s="8"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L77" s="8"/>
+    </row>
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>255</v>
       </c>
@@ -3340,15 +3513,15 @@
         <v>37</v>
       </c>
       <c r="G78"/>
-      <c r="H78" t="s">
+      <c r="J78" t="s">
         <v>257</v>
       </c>
-      <c r="I78">
+      <c r="K78">
         <v>7</v>
       </c>
-      <c r="J78" s="8"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L78" s="8"/>
+    </row>
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>258</v>
       </c>
@@ -3359,15 +3532,15 @@
         <v>9</v>
       </c>
       <c r="G79"/>
-      <c r="H79" t="s">
+      <c r="J79" t="s">
         <v>260</v>
       </c>
-      <c r="I79">
-        <v>9</v>
-      </c>
-      <c r="J79" s="8"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K79">
+        <v>9</v>
+      </c>
+      <c r="L79" s="8"/>
+    </row>
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>261</v>
       </c>
@@ -3381,13 +3554,13 @@
         <v>37</v>
       </c>
       <c r="G80"/>
-      <c r="H80" t="s">
+      <c r="J80" t="s">
         <v>264</v>
       </c>
-      <c r="I80">
+      <c r="K80">
         <v>3</v>
       </c>
-      <c r="J80" s="8"/>
+      <c r="L80" s="8"/>
     </row>
     <row r="83" spans="1:3" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A83" s="9" t="s">

--- a/info/Plantilla_organizacion.xlsx
+++ b/info/Plantilla_organizacion.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="281">
   <si>
     <t>variable</t>
   </si>
@@ -1448,13 +1448,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:K80" totalsRowShown="0">
-  <autoFilter ref="A1:K80">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="OverallQual"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K80"/>
   <tableColumns count="11">
     <tableColumn id="1" name="variable"/>
     <tableColumn id="2" name="definicion"/>
@@ -1771,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1824,7 +1818,7 @@
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1857,7 +1851,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1887,7 +1881,7 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1906,7 +1900,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1933,7 +1927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1963,7 +1957,7 @@
       </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1985,7 +1979,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2004,7 +1998,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -2025,7 +2019,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -2046,7 +2040,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -2065,7 +2059,7 @@
       </c>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2114,7 +2108,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2127,7 +2121,15 @@
       <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="G14"/>
+      <c r="E14" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" t="s">
+        <v>276</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
       <c r="J14" t="s">
         <v>55</v>
       </c>
@@ -2136,7 +2138,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2158,7 +2160,7 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -2180,7 +2182,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -2204,7 +2206,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -2223,7 +2225,7 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -2242,7 +2244,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -2261,7 +2263,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -2283,7 +2285,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2302,7 +2304,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -2332,7 +2334,7 @@
       </c>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -2364,7 +2366,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -2394,7 +2396,7 @@
       </c>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -2424,7 +2426,7 @@
       </c>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -2454,7 +2456,7 @@
       </c>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2487,7 +2489,7 @@
       </c>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -2519,7 +2521,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -2549,7 +2551,7 @@
       </c>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -2568,7 +2570,7 @@
       </c>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -2587,7 +2589,7 @@
       </c>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>123</v>
       </c>
@@ -2606,7 +2608,7 @@
       </c>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -2628,7 +2630,7 @@
       </c>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>130</v>
       </c>
@@ -2650,7 +2652,7 @@
       </c>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>132</v>
       </c>
@@ -2672,7 +2674,7 @@
       </c>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>136</v>
       </c>
@@ -2694,7 +2696,7 @@
       </c>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>139</v>
       </c>
@@ -2713,7 +2715,7 @@
       </c>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>142</v>
       </c>
@@ -2732,7 +2734,7 @@
       </c>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -2753,7 +2755,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -2774,7 +2776,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -2790,7 +2792,7 @@
       </c>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>155</v>
       </c>
@@ -2809,7 +2811,7 @@
       </c>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>157</v>
       </c>
@@ -2828,7 +2830,7 @@
       </c>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>160</v>
       </c>
@@ -2847,7 +2849,7 @@
       </c>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>162</v>
       </c>
@@ -2869,7 +2871,7 @@
       </c>
       <c r="L46" s="7"/>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>165</v>
       </c>
@@ -2888,7 +2890,7 @@
       </c>
       <c r="L47" s="7"/>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>167</v>
       </c>
@@ -2907,7 +2909,7 @@
       </c>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>170</v>
       </c>
@@ -2926,7 +2928,7 @@
       </c>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>173</v>
       </c>
@@ -2951,7 +2953,7 @@
       </c>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>177</v>
       </c>
@@ -2981,7 +2983,7 @@
       </c>
       <c r="L51" s="8"/>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>181</v>
       </c>
@@ -3011,7 +3013,7 @@
       </c>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>185</v>
       </c>
@@ -3041,7 +3043,7 @@
       </c>
       <c r="L53" s="8"/>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>189</v>
       </c>
@@ -3060,7 +3062,7 @@
       </c>
       <c r="L54" s="8"/>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>192</v>
       </c>
@@ -3079,7 +3081,7 @@
       </c>
       <c r="L55" s="8"/>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>194</v>
       </c>
@@ -3098,7 +3100,7 @@
       </c>
       <c r="L56" s="8"/>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>197</v>
       </c>
@@ -3117,7 +3119,7 @@
       </c>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>200</v>
       </c>
@@ -3139,7 +3141,7 @@
       </c>
       <c r="L58" s="8"/>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -3161,7 +3163,7 @@
       </c>
       <c r="L59" s="8"/>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>207</v>
       </c>
@@ -3174,7 +3176,7 @@
       <c r="G60"/>
       <c r="L60" s="8"/>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>209</v>
       </c>
@@ -3193,7 +3195,7 @@
       </c>
       <c r="L61" s="8"/>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>212</v>
       </c>
@@ -3209,7 +3211,7 @@
       </c>
       <c r="L62" s="8"/>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>214</v>
       </c>
@@ -3228,7 +3230,7 @@
       </c>
       <c r="L63" s="8"/>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>217</v>
       </c>
@@ -3253,7 +3255,7 @@
       </c>
       <c r="L64" s="8"/>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>220</v>
       </c>
@@ -3265,7 +3267,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>223</v>
       </c>
@@ -3287,7 +3289,7 @@
       </c>
       <c r="L66" s="8"/>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>227</v>
       </c>
@@ -3309,7 +3311,7 @@
       </c>
       <c r="L67" s="8"/>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>229</v>
       </c>
@@ -3328,7 +3330,7 @@
       </c>
       <c r="L68" s="8"/>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -3350,7 +3352,7 @@
       </c>
       <c r="L69" s="8"/>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>235</v>
       </c>
@@ -3372,7 +3374,7 @@
       </c>
       <c r="L70" s="8"/>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>238</v>
       </c>
@@ -3391,7 +3393,7 @@
       </c>
       <c r="L71" s="8"/>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>241</v>
       </c>
@@ -3413,7 +3415,7 @@
       </c>
       <c r="L72" s="8"/>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>245</v>
       </c>
@@ -3432,7 +3434,7 @@
       </c>
       <c r="L73" s="8"/>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>247</v>
       </c>
@@ -3451,7 +3453,7 @@
       </c>
       <c r="L74" s="8"/>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>250</v>
       </c>
@@ -3470,7 +3472,7 @@
       </c>
       <c r="L75" s="8"/>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>252</v>
       </c>
@@ -3486,7 +3488,7 @@
       </c>
       <c r="L76" s="8"/>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>253</v>
       </c>
@@ -3502,7 +3504,7 @@
       </c>
       <c r="L77" s="8"/>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>255</v>
       </c>
@@ -3521,7 +3523,7 @@
       </c>
       <c r="L78" s="8"/>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>258</v>
       </c>
@@ -3540,7 +3542,7 @@
       </c>
       <c r="L79" s="8"/>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>261</v>
       </c>

--- a/info/Plantilla_organizacion.xlsx
+++ b/info/Plantilla_organizacion.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="282">
   <si>
     <t>variable</t>
   </si>
@@ -862,6 +862,9 @@
   </si>
   <si>
     <t>ordinal</t>
+  </si>
+  <si>
+    <t>tiempo</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1451,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:K80" totalsRowShown="0">
-  <autoFilter ref="A1:K80"/>
+  <autoFilter ref="A1:K80">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Heating"/>
+        <filter val="HeatingQC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" name="variable"/>
     <tableColumn id="2" name="definicion"/>
@@ -1765,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1818,7 +1828,7 @@
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1851,7 +1861,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1881,7 +1891,7 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1890,6 +1900,9 @@
       </c>
       <c r="D4" t="s">
         <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>280</v>
       </c>
       <c r="G4"/>
       <c r="J4" t="s">
@@ -1900,7 +1913,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1927,7 +1940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1957,7 +1970,7 @@
       </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1970,7 +1983,15 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="G7"/>
+      <c r="E7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
@@ -1979,7 +2000,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1988,6 +2009,9 @@
       </c>
       <c r="D8" t="s">
         <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>280</v>
       </c>
       <c r="G8"/>
       <c r="J8" t="s">
@@ -1998,7 +2022,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -2019,7 +2043,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -2040,7 +2064,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -2059,7 +2083,7 @@
       </c>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2078,7 +2102,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -2108,7 +2132,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2138,7 +2162,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2151,7 +2175,15 @@
       <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="G15"/>
+      <c r="E15" t="s">
+        <v>281</v>
+      </c>
+      <c r="G15" t="s">
+        <v>279</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
       <c r="J15" t="s">
         <v>59</v>
       </c>
@@ -2160,7 +2192,7 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -2173,7 +2205,15 @@
       <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="G16"/>
+      <c r="E16" t="s">
+        <v>281</v>
+      </c>
+      <c r="G16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
       <c r="J16" t="s">
         <v>63</v>
       </c>
@@ -2182,7 +2222,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -2206,7 +2246,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -2225,7 +2265,7 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -2244,7 +2284,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -2263,7 +2303,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -2275,6 +2315,9 @@
       </c>
       <c r="D21" t="s">
         <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>280</v>
       </c>
       <c r="G21"/>
       <c r="J21" t="s">
@@ -2285,7 +2328,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2294,6 +2337,9 @@
       </c>
       <c r="D22" t="s">
         <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>280</v>
       </c>
       <c r="G22"/>
       <c r="J22" t="s">
@@ -2304,7 +2350,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -2334,7 +2380,7 @@
       </c>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -2366,7 +2412,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -2396,7 +2442,7 @@
       </c>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -2426,7 +2472,7 @@
       </c>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -2456,7 +2502,7 @@
       </c>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2489,7 +2535,7 @@
       </c>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -2521,7 +2567,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -2551,7 +2597,7 @@
       </c>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -2570,7 +2616,7 @@
       </c>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -2589,7 +2635,7 @@
       </c>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>123</v>
       </c>
@@ -2599,7 +2645,15 @@
       <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="G33"/>
+      <c r="E33" t="s">
+        <v>273</v>
+      </c>
+      <c r="G33" t="s">
+        <v>279</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
       <c r="J33" t="s">
         <v>125</v>
       </c>
@@ -2608,7 +2662,7 @@
       </c>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -2621,7 +2675,15 @@
       <c r="D34" t="s">
         <v>9</v>
       </c>
-      <c r="G34"/>
+      <c r="E34" t="s">
+        <v>273</v>
+      </c>
+      <c r="G34" t="s">
+        <v>276</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
       <c r="J34" t="s">
         <v>129</v>
       </c>
@@ -2630,7 +2692,7 @@
       </c>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>130</v>
       </c>
@@ -2642,6 +2704,9 @@
       </c>
       <c r="D35" t="s">
         <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>273</v>
       </c>
       <c r="G35"/>
       <c r="J35" t="s">
@@ -2652,7 +2717,7 @@
       </c>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>132</v>
       </c>
@@ -2664,6 +2729,9 @@
       </c>
       <c r="D36" t="s">
         <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>273</v>
       </c>
       <c r="G36"/>
       <c r="J36" t="s">
@@ -2674,7 +2742,7 @@
       </c>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>136</v>
       </c>
@@ -2686,6 +2754,9 @@
       </c>
       <c r="D37" t="s">
         <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>278</v>
       </c>
       <c r="G37"/>
       <c r="J37" t="s">
@@ -2696,7 +2767,7 @@
       </c>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>139</v>
       </c>
@@ -2705,6 +2776,9 @@
       </c>
       <c r="D38" t="s">
         <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>280</v>
       </c>
       <c r="G38"/>
       <c r="J38" t="s">
@@ -2715,7 +2789,7 @@
       </c>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>142</v>
       </c>
@@ -2724,6 +2798,9 @@
       </c>
       <c r="D39" t="s">
         <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>273</v>
       </c>
       <c r="G39"/>
       <c r="J39" t="s">
@@ -2734,7 +2811,7 @@
       </c>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -2755,7 +2832,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -2776,7 +2853,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -2792,7 +2869,7 @@
       </c>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>155</v>
       </c>
@@ -2811,7 +2888,7 @@
       </c>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>157</v>
       </c>
@@ -2830,7 +2907,7 @@
       </c>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>160</v>
       </c>
@@ -2849,7 +2926,7 @@
       </c>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>162</v>
       </c>
@@ -2871,7 +2948,7 @@
       </c>
       <c r="L46" s="7"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>165</v>
       </c>
@@ -2900,6 +2977,9 @@
       <c r="D48" t="s">
         <v>9</v>
       </c>
+      <c r="E48" t="s">
+        <v>280</v>
+      </c>
       <c r="G48"/>
       <c r="J48" t="s">
         <v>169</v>
@@ -2919,6 +2999,9 @@
       <c r="D49" t="s">
         <v>9</v>
       </c>
+      <c r="E49" t="s">
+        <v>273</v>
+      </c>
       <c r="G49"/>
       <c r="J49" t="s">
         <v>172</v>
@@ -2928,7 +3011,7 @@
       </c>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>173</v>
       </c>
@@ -2953,7 +3036,7 @@
       </c>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>177</v>
       </c>
@@ -2983,7 +3066,7 @@
       </c>
       <c r="L51" s="8"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>181</v>
       </c>
@@ -3013,7 +3096,7 @@
       </c>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>185</v>
       </c>
@@ -3043,7 +3126,7 @@
       </c>
       <c r="L53" s="8"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>189</v>
       </c>
@@ -3062,7 +3145,7 @@
       </c>
       <c r="L54" s="8"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>192</v>
       </c>
@@ -3081,7 +3164,7 @@
       </c>
       <c r="L55" s="8"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>194</v>
       </c>
@@ -3100,7 +3183,7 @@
       </c>
       <c r="L56" s="8"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>197</v>
       </c>
@@ -3119,7 +3202,7 @@
       </c>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>200</v>
       </c>
@@ -3141,7 +3224,7 @@
       </c>
       <c r="L58" s="8"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -3163,7 +3246,7 @@
       </c>
       <c r="L59" s="8"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>207</v>
       </c>
@@ -3176,7 +3259,7 @@
       <c r="G60"/>
       <c r="L60" s="8"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>209</v>
       </c>
@@ -3195,7 +3278,7 @@
       </c>
       <c r="L61" s="8"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>212</v>
       </c>
@@ -3211,7 +3294,7 @@
       </c>
       <c r="L62" s="8"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>214</v>
       </c>
@@ -3230,7 +3313,7 @@
       </c>
       <c r="L63" s="8"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>217</v>
       </c>
@@ -3255,7 +3338,7 @@
       </c>
       <c r="L64" s="8"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>220</v>
       </c>
@@ -3267,7 +3350,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>223</v>
       </c>
@@ -3279,6 +3362,9 @@
       </c>
       <c r="D66" t="s">
         <v>21</v>
+      </c>
+      <c r="E66" t="s">
+        <v>278</v>
       </c>
       <c r="G66"/>
       <c r="J66" t="s">
@@ -3289,7 +3375,7 @@
       </c>
       <c r="L66" s="8"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>227</v>
       </c>
@@ -3301,6 +3387,9 @@
       </c>
       <c r="D67" t="s">
         <v>21</v>
+      </c>
+      <c r="E67" t="s">
+        <v>278</v>
       </c>
       <c r="G67"/>
       <c r="J67" t="s">
@@ -3311,7 +3400,7 @@
       </c>
       <c r="L67" s="8"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>229</v>
       </c>
@@ -3320,6 +3409,9 @@
       </c>
       <c r="D68" t="s">
         <v>21</v>
+      </c>
+      <c r="E68" t="s">
+        <v>278</v>
       </c>
       <c r="G68"/>
       <c r="J68" t="s">
@@ -3330,7 +3422,7 @@
       </c>
       <c r="L68" s="8"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -3352,7 +3444,7 @@
       </c>
       <c r="L69" s="8"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>235</v>
       </c>
@@ -3374,7 +3466,7 @@
       </c>
       <c r="L70" s="8"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>238</v>
       </c>
@@ -3383,6 +3475,9 @@
       </c>
       <c r="D71" t="s">
         <v>21</v>
+      </c>
+      <c r="E71" t="s">
+        <v>278</v>
       </c>
       <c r="G71"/>
       <c r="J71" t="s">
@@ -3393,7 +3488,7 @@
       </c>
       <c r="L71" s="8"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>241</v>
       </c>
@@ -3405,6 +3500,9 @@
       </c>
       <c r="D72" t="s">
         <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>280</v>
       </c>
       <c r="G72"/>
       <c r="J72" t="s">
@@ -3415,7 +3513,7 @@
       </c>
       <c r="L72" s="8"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>245</v>
       </c>
@@ -3424,6 +3522,9 @@
       </c>
       <c r="D73" t="s">
         <v>9</v>
+      </c>
+      <c r="E73" t="s">
+        <v>280</v>
       </c>
       <c r="G73"/>
       <c r="J73" t="s">
@@ -3434,7 +3535,7 @@
       </c>
       <c r="L73" s="8"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>247</v>
       </c>
@@ -3453,7 +3554,7 @@
       </c>
       <c r="L74" s="8"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>250</v>
       </c>
@@ -3472,7 +3573,7 @@
       </c>
       <c r="L75" s="8"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>252</v>
       </c>
@@ -3488,7 +3589,7 @@
       </c>
       <c r="L76" s="8"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>253</v>
       </c>
@@ -3504,7 +3605,7 @@
       </c>
       <c r="L77" s="8"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>255</v>
       </c>
@@ -3523,7 +3624,7 @@
       </c>
       <c r="L78" s="8"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>258</v>
       </c>
@@ -3542,7 +3643,7 @@
       </c>
       <c r="L79" s="8"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>261</v>
       </c>

--- a/info/Plantilla_organizacion.xlsx
+++ b/info/Plantilla_organizacion.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="278">
   <si>
     <t>variable</t>
   </si>
@@ -831,9 +831,6 @@
     <t>clase</t>
   </si>
   <si>
-    <t>cardanilidad</t>
-  </si>
-  <si>
     <t>Nota:</t>
   </si>
   <si>
@@ -843,28 +840,19 @@
     <t>nominal</t>
   </si>
   <si>
-    <t>alta</t>
-  </si>
-  <si>
-    <t>cantidad cardanilidad</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>graduada membrecia</t>
-  </si>
-  <si>
     <t>numerico</t>
   </si>
   <si>
-    <t>baja</t>
-  </si>
-  <si>
     <t>ordinal</t>
   </si>
   <si>
     <t>tiempo</t>
+  </si>
+  <si>
+    <t>binario</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -1450,24 +1438,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:K80" totalsRowShown="0">
-  <autoFilter ref="A1:K80">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Heating"/>
-        <filter val="HeatingQC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:H80" totalsRowShown="0">
+  <autoFilter ref="A1:H80"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="variable"/>
     <tableColumn id="2" name="definicion"/>
     <tableColumn id="3" name="descripcion"/>
     <tableColumn id="4" name="tipo"/>
     <tableColumn id="7" name="clase"/>
-    <tableColumn id="11" name="graduada membrecia"/>
-    <tableColumn id="10" name="cardanilidad"/>
-    <tableColumn id="9" name="cantidad cardanilidad"/>
     <tableColumn id="8" name="nan defaut"/>
     <tableColumn id="5" name="espectativa"/>
     <tableColumn id="6" name="importancia"/>
@@ -1773,26 +1751,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
     <col min="4" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1809,26 +1784,17 @@
         <v>269</v>
       </c>
       <c r="F1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="G1" t="s">
-        <v>270</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>275</v>
-      </c>
-      <c r="I1" t="s">
-        <v>265</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1842,26 +1808,20 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="F2" t="s">
+        <v>268</v>
       </c>
       <c r="G2" t="s">
-        <v>274</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>268</v>
-      </c>
-      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1875,23 +1835,17 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G3" t="s">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3">
         <v>7</v>
       </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1902,18 +1856,17 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>280</v>
-      </c>
-      <c r="G4"/>
-      <c r="J4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="K4">
+      <c r="H4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1927,20 +1880,19 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G5"/>
-      <c r="J5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="K5">
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1954,23 +1906,17 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G6" t="s">
-        <v>279</v>
+        <v>27</v>
       </c>
       <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1984,23 +1930,17 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G7" t="s">
-        <v>279</v>
+        <v>31</v>
       </c>
       <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2011,18 +1951,17 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
-      </c>
-      <c r="G8"/>
-      <c r="J8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
         <v>34</v>
       </c>
-      <c r="K8">
-        <v>9</v>
-      </c>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -2032,18 +1971,20 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="G9"/>
-      <c r="J9" t="s">
+      <c r="E9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G9" t="s">
         <v>38</v>
       </c>
-      <c r="K9">
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -2053,18 +1994,20 @@
       <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="G10"/>
-      <c r="J10" t="s">
+      <c r="E10" t="s">
+        <v>275</v>
+      </c>
+      <c r="G10" t="s">
         <v>38</v>
       </c>
-      <c r="K10">
+      <c r="H10">
         <v>1</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -2074,16 +2017,18 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="G11"/>
-      <c r="J11" t="s">
+      <c r="E11" t="s">
+        <v>272</v>
+      </c>
+      <c r="G11" t="s">
         <v>45</v>
       </c>
-      <c r="K11">
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2093,16 +2038,18 @@
       <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="G12"/>
-      <c r="J12" t="s">
+      <c r="E12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
         <v>45</v>
       </c>
-      <c r="K12">
+      <c r="H12">
         <v>4</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -2116,23 +2063,17 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G13" t="s">
-        <v>276</v>
+        <v>51</v>
       </c>
       <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="J13" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13">
         <v>6</v>
       </c>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2146,23 +2087,17 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G14" t="s">
-        <v>276</v>
+        <v>55</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
-      <c r="J14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14">
-        <v>10</v>
-      </c>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2176,23 +2111,17 @@
         <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G15" t="s">
-        <v>279</v>
+        <v>59</v>
       </c>
       <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15">
         <v>5</v>
       </c>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -2206,23 +2135,17 @@
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G16" t="s">
-        <v>279</v>
+        <v>63</v>
       </c>
       <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16">
         <v>3</v>
       </c>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -2235,18 +2158,20 @@
       <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="G17"/>
-      <c r="J17" t="s">
+      <c r="E17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" t="s">
         <v>67</v>
       </c>
-      <c r="K17">
+      <c r="H17">
         <v>10</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -2256,16 +2181,18 @@
       <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="G18"/>
-      <c r="J18" t="s">
+      <c r="E18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" t="s">
         <v>71</v>
       </c>
-      <c r="K18">
-        <v>9</v>
-      </c>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>9</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -2275,16 +2202,18 @@
       <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="G19"/>
-      <c r="J19" t="s">
+      <c r="E19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G19" t="s">
         <v>74</v>
       </c>
-      <c r="K19">
+      <c r="H19">
         <v>3</v>
       </c>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -2294,16 +2223,18 @@
       <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="G20"/>
-      <c r="I20" t="s">
+      <c r="E20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F20" t="s">
         <v>266</v>
       </c>
-      <c r="K20">
+      <c r="H20">
         <v>6</v>
       </c>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -2317,18 +2248,17 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>280</v>
-      </c>
-      <c r="G21"/>
-      <c r="J21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" t="s">
         <v>80</v>
       </c>
-      <c r="K21">
+      <c r="H21">
         <v>8</v>
       </c>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2339,18 +2269,17 @@
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>280</v>
-      </c>
-      <c r="G22"/>
-      <c r="J22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" t="s">
         <v>83</v>
       </c>
-      <c r="K22">
+      <c r="H22">
         <v>5.8</v>
       </c>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -2364,23 +2293,17 @@
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G23" t="s">
-        <v>276</v>
+        <v>87</v>
       </c>
       <c r="H23">
-        <v>8</v>
-      </c>
-      <c r="J23" t="s">
-        <v>87</v>
-      </c>
-      <c r="K23">
         <v>7.5</v>
       </c>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -2394,25 +2317,19 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G24" t="s">
-        <v>274</v>
+        <v>91</v>
       </c>
       <c r="H24">
-        <v>25</v>
-      </c>
-      <c r="J24" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24">
         <v>8</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -2426,23 +2343,17 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G25" t="s">
-        <v>276</v>
+        <v>96</v>
       </c>
       <c r="H25">
         <v>9</v>
       </c>
-      <c r="J25" t="s">
-        <v>96</v>
-      </c>
-      <c r="K25">
-        <v>9</v>
-      </c>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -2456,23 +2367,17 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G26" t="s">
-        <v>276</v>
+        <v>99</v>
       </c>
       <c r="H26">
-        <v>9</v>
-      </c>
-      <c r="J26" t="s">
-        <v>99</v>
-      </c>
-      <c r="K26">
         <v>10</v>
       </c>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -2486,23 +2391,17 @@
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G27" t="s">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="J27" t="s">
-        <v>103</v>
-      </c>
-      <c r="K27">
         <v>8</v>
       </c>
-      <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2516,26 +2415,20 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>279</v>
+        <v>107</v>
       </c>
       <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>107</v>
-      </c>
-      <c r="K28">
-        <v>9</v>
-      </c>
-      <c r="L28" s="6"/>
-    </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -2549,25 +2442,19 @@
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G29" t="s">
-        <v>279</v>
+        <v>111</v>
       </c>
       <c r="H29">
         <v>4</v>
       </c>
-      <c r="J29" t="s">
-        <v>111</v>
-      </c>
-      <c r="K29">
-        <v>4</v>
-      </c>
-      <c r="L29" s="6" t="s">
+      <c r="I29" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -2581,23 +2468,17 @@
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G30" t="s">
-        <v>279</v>
+        <v>116</v>
       </c>
       <c r="H30">
-        <v>5</v>
-      </c>
-      <c r="J30" t="s">
-        <v>116</v>
-      </c>
-      <c r="K30">
         <v>2</v>
       </c>
-      <c r="L30" s="6"/>
-    </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -2607,16 +2488,18 @@
       <c r="D31" t="s">
         <v>9</v>
       </c>
-      <c r="G31"/>
-      <c r="J31" t="s">
+      <c r="E31" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" t="s">
         <v>119</v>
       </c>
-      <c r="K31">
+      <c r="H31">
         <v>3</v>
       </c>
-      <c r="L31" s="6"/>
-    </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -2626,16 +2509,18 @@
       <c r="D32" t="s">
         <v>9</v>
       </c>
-      <c r="G32"/>
-      <c r="J32" t="s">
+      <c r="E32" t="s">
+        <v>274</v>
+      </c>
+      <c r="G32" t="s">
         <v>122</v>
       </c>
-      <c r="K32">
+      <c r="H32">
         <v>7</v>
       </c>
-      <c r="L32" s="6"/>
-    </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>123</v>
       </c>
@@ -2646,23 +2531,17 @@
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G33" t="s">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c r="H33">
-        <v>8</v>
-      </c>
-      <c r="J33" t="s">
-        <v>125</v>
-      </c>
-      <c r="K33">
         <v>7</v>
       </c>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -2676,23 +2555,17 @@
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G34" t="s">
-        <v>276</v>
+        <v>129</v>
       </c>
       <c r="H34">
-        <v>15</v>
-      </c>
-      <c r="J34" t="s">
-        <v>129</v>
-      </c>
-      <c r="K34">
         <v>4</v>
       </c>
-      <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>130</v>
       </c>
@@ -2706,18 +2579,17 @@
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>273</v>
-      </c>
-      <c r="G35"/>
-      <c r="J35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G35" t="s">
         <v>129</v>
       </c>
-      <c r="K35">
+      <c r="H35">
         <v>3</v>
       </c>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>132</v>
       </c>
@@ -2731,18 +2603,17 @@
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>273</v>
-      </c>
-      <c r="G36"/>
-      <c r="J36" t="s">
+        <v>272</v>
+      </c>
+      <c r="G36" t="s">
         <v>135</v>
       </c>
-      <c r="K36">
+      <c r="H36">
         <v>6</v>
       </c>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>136</v>
       </c>
@@ -2756,18 +2627,17 @@
         <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>278</v>
-      </c>
-      <c r="G37"/>
-      <c r="J37" t="s">
+        <v>273</v>
+      </c>
+      <c r="G37" t="s">
         <v>135</v>
       </c>
-      <c r="K37">
+      <c r="H37">
         <v>7</v>
       </c>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>139</v>
       </c>
@@ -2778,18 +2648,17 @@
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>280</v>
-      </c>
-      <c r="G38"/>
-      <c r="J38" t="s">
+        <v>274</v>
+      </c>
+      <c r="G38" t="s">
         <v>141</v>
       </c>
-      <c r="K38">
+      <c r="H38">
         <v>5</v>
       </c>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>142</v>
       </c>
@@ -2800,18 +2669,17 @@
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>273</v>
-      </c>
-      <c r="G39"/>
-      <c r="J39" t="s">
+        <v>272</v>
+      </c>
+      <c r="G39" t="s">
         <v>144</v>
       </c>
-      <c r="K39">
+      <c r="H39">
         <v>8.5</v>
       </c>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -2821,18 +2689,20 @@
       <c r="D40" t="s">
         <v>21</v>
       </c>
-      <c r="G40"/>
-      <c r="J40" t="s">
+      <c r="E40" t="s">
+        <v>273</v>
+      </c>
+      <c r="G40" t="s">
         <v>147</v>
       </c>
-      <c r="K40">
+      <c r="H40">
         <v>6</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -2842,18 +2712,20 @@
       <c r="D41" t="s">
         <v>9</v>
       </c>
-      <c r="G41"/>
-      <c r="J41" t="s">
+      <c r="E41" t="s">
+        <v>274</v>
+      </c>
+      <c r="G41" t="s">
         <v>151</v>
       </c>
-      <c r="K41">
+      <c r="H41">
         <v>7</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="I41" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -2863,13 +2735,15 @@
       <c r="D42" t="s">
         <v>9</v>
       </c>
-      <c r="G42"/>
-      <c r="K42">
+      <c r="E42" t="s">
+        <v>274</v>
+      </c>
+      <c r="H42">
         <v>3</v>
       </c>
-      <c r="L42" s="7"/>
-    </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>155</v>
       </c>
@@ -2879,16 +2753,18 @@
       <c r="D43" t="s">
         <v>9</v>
       </c>
-      <c r="G43"/>
-      <c r="I43" t="s">
+      <c r="E43" t="s">
+        <v>274</v>
+      </c>
+      <c r="F43" t="s">
         <v>267</v>
       </c>
-      <c r="K43">
+      <c r="H43">
         <v>4</v>
       </c>
-      <c r="L43" s="7"/>
-    </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>157</v>
       </c>
@@ -2898,16 +2774,18 @@
       <c r="D44" t="s">
         <v>21</v>
       </c>
-      <c r="G44"/>
-      <c r="J44" t="s">
+      <c r="E44" t="s">
+        <v>273</v>
+      </c>
+      <c r="G44" t="s">
         <v>159</v>
       </c>
-      <c r="K44">
+      <c r="H44">
         <v>4</v>
       </c>
-      <c r="L44" s="7"/>
-    </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>160</v>
       </c>
@@ -2917,16 +2795,18 @@
       <c r="D45" t="s">
         <v>9</v>
       </c>
-      <c r="G45"/>
-      <c r="I45" t="b">
+      <c r="E45" t="s">
+        <v>274</v>
+      </c>
+      <c r="F45" t="b">
         <v>1</v>
       </c>
-      <c r="K45">
+      <c r="H45">
         <v>10</v>
       </c>
-      <c r="L45" s="7"/>
-    </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>162</v>
       </c>
@@ -2936,19 +2816,21 @@
       <c r="D46" t="s">
         <v>9</v>
       </c>
-      <c r="G46"/>
-      <c r="I46" t="b">
+      <c r="E46" t="s">
+        <v>274</v>
+      </c>
+      <c r="F46" t="b">
         <v>1</v>
       </c>
-      <c r="J46" t="s">
+      <c r="G46" t="s">
         <v>164</v>
       </c>
-      <c r="K46">
+      <c r="H46">
         <v>4</v>
       </c>
-      <c r="L46" s="7"/>
-    </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>165</v>
       </c>
@@ -2958,16 +2840,18 @@
       <c r="D47" t="s">
         <v>9</v>
       </c>
-      <c r="G47"/>
-      <c r="I47" t="b">
+      <c r="E47" t="s">
+        <v>274</v>
+      </c>
+      <c r="F47" t="b">
         <v>1</v>
       </c>
-      <c r="K47">
+      <c r="H47">
         <v>7</v>
       </c>
-      <c r="L47" s="7"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>167</v>
       </c>
@@ -2978,18 +2862,17 @@
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>280</v>
-      </c>
-      <c r="G48"/>
-      <c r="J48" t="s">
+        <v>274</v>
+      </c>
+      <c r="G48" t="s">
         <v>169</v>
       </c>
-      <c r="K48">
+      <c r="H48">
         <v>10</v>
       </c>
-      <c r="L48" s="7"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>170</v>
       </c>
@@ -3000,18 +2883,17 @@
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>273</v>
-      </c>
-      <c r="G49"/>
-      <c r="J49" t="s">
+        <v>272</v>
+      </c>
+      <c r="G49" t="s">
         <v>172</v>
       </c>
-      <c r="K49">
+      <c r="H49">
         <v>10</v>
       </c>
-      <c r="L49" s="7"/>
-    </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>173</v>
       </c>
@@ -3025,18 +2907,17 @@
         <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>278</v>
-      </c>
-      <c r="G50"/>
-      <c r="J50" t="s">
+        <v>273</v>
+      </c>
+      <c r="G50" t="s">
         <v>176</v>
       </c>
-      <c r="K50">
+      <c r="H50">
         <v>5.5</v>
       </c>
-      <c r="L50" s="8"/>
-    </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>177</v>
       </c>
@@ -3050,23 +2931,17 @@
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G51" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="H51">
-        <v>4</v>
-      </c>
-      <c r="J51" t="s">
-        <v>180</v>
-      </c>
-      <c r="K51">
         <v>10</v>
       </c>
-      <c r="L51" s="8"/>
-    </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>181</v>
       </c>
@@ -3080,23 +2955,17 @@
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G52" t="s">
-        <v>279</v>
+        <v>184</v>
       </c>
       <c r="H52">
-        <v>3</v>
-      </c>
-      <c r="J52" t="s">
-        <v>184</v>
-      </c>
-      <c r="K52">
         <v>2</v>
       </c>
-      <c r="L52" s="8"/>
-    </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>185</v>
       </c>
@@ -3110,23 +2979,17 @@
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G53" t="s">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="H53">
         <v>8</v>
       </c>
-      <c r="J53" t="s">
-        <v>188</v>
-      </c>
-      <c r="K53">
-        <v>8</v>
-      </c>
-      <c r="L53" s="8"/>
-    </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>189</v>
       </c>
@@ -3136,16 +2999,18 @@
       <c r="D54" t="s">
         <v>21</v>
       </c>
-      <c r="G54"/>
-      <c r="J54" t="s">
+      <c r="E54" t="s">
+        <v>273</v>
+      </c>
+      <c r="G54" t="s">
         <v>191</v>
       </c>
-      <c r="K54">
+      <c r="H54">
         <v>10</v>
       </c>
-      <c r="L54" s="8"/>
-    </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>192</v>
       </c>
@@ -3155,16 +3020,18 @@
       <c r="D55" t="s">
         <v>21</v>
       </c>
-      <c r="G55"/>
-      <c r="J55" t="s">
+      <c r="E55" t="s">
+        <v>273</v>
+      </c>
+      <c r="G55" t="s">
         <v>191</v>
       </c>
-      <c r="K55">
+      <c r="H55">
         <v>10</v>
       </c>
-      <c r="L55" s="8"/>
-    </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>194</v>
       </c>
@@ -3174,16 +3041,18 @@
       <c r="D56" t="s">
         <v>37</v>
       </c>
-      <c r="G56"/>
-      <c r="J56" t="s">
+      <c r="E56" t="s">
+        <v>277</v>
+      </c>
+      <c r="G56" t="s">
         <v>196</v>
       </c>
-      <c r="K56">
+      <c r="H56">
         <v>10</v>
       </c>
-      <c r="L56" s="8"/>
-    </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>197</v>
       </c>
@@ -3193,16 +3062,18 @@
       <c r="D57" t="s">
         <v>37</v>
       </c>
-      <c r="G57"/>
-      <c r="J57" t="s">
+      <c r="E57" t="s">
+        <v>277</v>
+      </c>
+      <c r="G57" t="s">
         <v>199</v>
       </c>
-      <c r="K57">
+      <c r="H57">
         <v>10</v>
       </c>
-      <c r="L57" s="8"/>
-    </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>200</v>
       </c>
@@ -3215,16 +3086,18 @@
       <c r="D58" t="s">
         <v>37</v>
       </c>
-      <c r="G58"/>
-      <c r="J58" t="s">
+      <c r="E58" t="s">
+        <v>277</v>
+      </c>
+      <c r="G58" t="s">
         <v>202</v>
       </c>
-      <c r="K58">
+      <c r="H58">
         <v>10</v>
       </c>
-      <c r="L58" s="8"/>
-    </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -3237,16 +3110,18 @@
       <c r="D59" t="s">
         <v>205</v>
       </c>
-      <c r="G59"/>
-      <c r="J59" t="s">
+      <c r="E59" t="s">
+        <v>277</v>
+      </c>
+      <c r="G59" t="s">
         <v>206</v>
       </c>
-      <c r="K59">
+      <c r="H59">
         <v>10</v>
       </c>
-      <c r="L59" s="8"/>
-    </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I59" s="8"/>
+    </row>
+    <row r="60" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>207</v>
       </c>
@@ -3256,10 +3131,12 @@
       <c r="D60" t="s">
         <v>37</v>
       </c>
-      <c r="G60"/>
-      <c r="L60" s="8"/>
-    </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E60" t="s">
+        <v>273</v>
+      </c>
+      <c r="I60" s="8"/>
+    </row>
+    <row r="61" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>209</v>
       </c>
@@ -3269,16 +3146,18 @@
       <c r="D61" t="s">
         <v>21</v>
       </c>
-      <c r="G61"/>
-      <c r="J61" t="s">
+      <c r="E61" t="s">
+        <v>273</v>
+      </c>
+      <c r="G61" t="s">
         <v>211</v>
       </c>
-      <c r="K61">
-        <v>9</v>
-      </c>
-      <c r="L61" s="8"/>
-    </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H61">
+        <v>9</v>
+      </c>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>212</v>
       </c>
@@ -3288,13 +3167,15 @@
       <c r="D62" t="s">
         <v>21</v>
       </c>
-      <c r="G62"/>
-      <c r="K62">
-        <v>9</v>
-      </c>
-      <c r="L62" s="8"/>
-    </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E62" t="s">
+        <v>273</v>
+      </c>
+      <c r="H62">
+        <v>9</v>
+      </c>
+      <c r="I62" s="8"/>
+    </row>
+    <row r="63" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>214</v>
       </c>
@@ -3304,16 +3185,18 @@
       <c r="D63" t="s">
         <v>21</v>
       </c>
-      <c r="G63"/>
-      <c r="J63" t="s">
+      <c r="E63" t="s">
+        <v>273</v>
+      </c>
+      <c r="G63" t="s">
         <v>216</v>
       </c>
-      <c r="K63">
+      <c r="H63">
         <v>10</v>
       </c>
-      <c r="L63" s="8"/>
-    </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>217</v>
       </c>
@@ -3326,31 +3209,35 @@
       <c r="D64" t="s">
         <v>9</v>
       </c>
-      <c r="G64"/>
-      <c r="I64" t="b">
+      <c r="E64" t="s">
+        <v>272</v>
+      </c>
+      <c r="F64" t="b">
         <v>1</v>
       </c>
-      <c r="J64" t="s">
+      <c r="G64" t="s">
         <v>219</v>
       </c>
-      <c r="K64">
+      <c r="H64">
         <v>10</v>
       </c>
-      <c r="L64" s="8"/>
-    </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I64" s="8"/>
+    </row>
+    <row r="65" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>220</v>
       </c>
       <c r="B65" t="s">
         <v>221</v>
       </c>
-      <c r="G65"/>
-      <c r="L65" s="8" t="s">
+      <c r="E65" t="s">
+        <v>273</v>
+      </c>
+      <c r="I65" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>223</v>
       </c>
@@ -3364,18 +3251,17 @@
         <v>21</v>
       </c>
       <c r="E66" t="s">
-        <v>278</v>
-      </c>
-      <c r="G66"/>
-      <c r="J66" t="s">
+        <v>273</v>
+      </c>
+      <c r="G66" t="s">
         <v>226</v>
       </c>
-      <c r="K66">
+      <c r="H66">
         <v>8</v>
       </c>
-      <c r="L66" s="8"/>
-    </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I66" s="8"/>
+    </row>
+    <row r="67" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>227</v>
       </c>
@@ -3389,18 +3275,17 @@
         <v>21</v>
       </c>
       <c r="E67" t="s">
-        <v>278</v>
-      </c>
-      <c r="G67"/>
-      <c r="J67" t="s">
+        <v>273</v>
+      </c>
+      <c r="G67" t="s">
         <v>226</v>
       </c>
-      <c r="K67">
+      <c r="H67">
         <v>8</v>
       </c>
-      <c r="L67" s="8"/>
-    </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I67" s="8"/>
+    </row>
+    <row r="68" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>229</v>
       </c>
@@ -3411,18 +3296,17 @@
         <v>21</v>
       </c>
       <c r="E68" t="s">
-        <v>278</v>
-      </c>
-      <c r="G68"/>
-      <c r="J68" t="s">
+        <v>273</v>
+      </c>
+      <c r="G68" t="s">
         <v>231</v>
       </c>
-      <c r="K68">
+      <c r="H68">
         <v>10</v>
       </c>
-      <c r="L68" s="8"/>
-    </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I68" s="8"/>
+    </row>
+    <row r="69" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -3435,16 +3319,18 @@
       <c r="D69" t="s">
         <v>37</v>
       </c>
-      <c r="G69"/>
-      <c r="J69" t="s">
+      <c r="E69" t="s">
+        <v>277</v>
+      </c>
+      <c r="G69" t="s">
         <v>234</v>
       </c>
-      <c r="K69">
+      <c r="H69">
         <v>8</v>
       </c>
-      <c r="L69" s="8"/>
-    </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I69" s="8"/>
+    </row>
+    <row r="70" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>235</v>
       </c>
@@ -3457,16 +3343,18 @@
       <c r="D70" t="s">
         <v>37</v>
       </c>
-      <c r="G70"/>
-      <c r="J70" t="s">
+      <c r="E70" t="s">
+        <v>277</v>
+      </c>
+      <c r="G70" t="s">
         <v>237</v>
       </c>
-      <c r="K70">
-        <v>9</v>
-      </c>
-      <c r="L70" s="8"/>
-    </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H70">
+        <v>9</v>
+      </c>
+      <c r="I70" s="8"/>
+    </row>
+    <row r="71" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>238</v>
       </c>
@@ -3477,18 +3365,17 @@
         <v>21</v>
       </c>
       <c r="E71" t="s">
-        <v>278</v>
-      </c>
-      <c r="G71"/>
-      <c r="J71" t="s">
+        <v>273</v>
+      </c>
+      <c r="G71" t="s">
         <v>240</v>
       </c>
-      <c r="K71">
+      <c r="H71">
         <v>10</v>
       </c>
-      <c r="L71" s="8"/>
-    </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I71" s="8"/>
+    </row>
+    <row r="72" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>241</v>
       </c>
@@ -3502,18 +3389,17 @@
         <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>280</v>
-      </c>
-      <c r="G72"/>
-      <c r="J72" t="s">
+        <v>274</v>
+      </c>
+      <c r="G72" t="s">
         <v>244</v>
       </c>
-      <c r="K72">
-        <v>9</v>
-      </c>
-      <c r="L72" s="8"/>
-    </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H72">
+        <v>9</v>
+      </c>
+      <c r="I72" s="8"/>
+    </row>
+    <row r="73" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>245</v>
       </c>
@@ -3524,18 +3410,17 @@
         <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>280</v>
-      </c>
-      <c r="G73"/>
-      <c r="J73" t="s">
+        <v>274</v>
+      </c>
+      <c r="G73" t="s">
         <v>244</v>
       </c>
-      <c r="K73">
-        <v>9</v>
-      </c>
-      <c r="L73" s="8"/>
-    </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H73">
+        <v>9</v>
+      </c>
+      <c r="I73" s="8"/>
+    </row>
+    <row r="74" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>247</v>
       </c>
@@ -3545,16 +3430,18 @@
       <c r="D74" t="s">
         <v>21</v>
       </c>
-      <c r="G74"/>
-      <c r="J74" t="s">
+      <c r="E74" t="s">
+        <v>273</v>
+      </c>
+      <c r="G74" t="s">
         <v>249</v>
       </c>
-      <c r="K74">
+      <c r="H74">
         <v>6</v>
       </c>
-      <c r="L74" s="8"/>
-    </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I74" s="8"/>
+    </row>
+    <row r="75" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>250</v>
       </c>
@@ -3564,16 +3451,18 @@
       <c r="D75" t="s">
         <v>21</v>
       </c>
-      <c r="G75"/>
-      <c r="J75" t="s">
+      <c r="E75" t="s">
+        <v>273</v>
+      </c>
+      <c r="G75" t="s">
         <v>249</v>
       </c>
-      <c r="K75">
+      <c r="H75">
         <v>7</v>
       </c>
-      <c r="L75" s="8"/>
-    </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I75" s="8"/>
+    </row>
+    <row r="76" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>252</v>
       </c>
@@ -3583,13 +3472,15 @@
       <c r="D76" t="s">
         <v>21</v>
       </c>
-      <c r="G76"/>
-      <c r="K76">
+      <c r="E76" t="s">
+        <v>273</v>
+      </c>
+      <c r="H76">
         <v>8</v>
       </c>
-      <c r="L76" s="8"/>
-    </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I76" s="8"/>
+    </row>
+    <row r="77" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>253</v>
       </c>
@@ -3599,13 +3490,15 @@
       <c r="D77" t="s">
         <v>21</v>
       </c>
-      <c r="G77"/>
-      <c r="K77">
+      <c r="E77" t="s">
+        <v>273</v>
+      </c>
+      <c r="H77">
         <v>8</v>
       </c>
-      <c r="L77" s="8"/>
-    </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I77" s="8"/>
+    </row>
+    <row r="78" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>255</v>
       </c>
@@ -3615,16 +3508,18 @@
       <c r="D78" t="s">
         <v>37</v>
       </c>
-      <c r="G78"/>
-      <c r="J78" t="s">
+      <c r="E78" t="s">
+        <v>277</v>
+      </c>
+      <c r="G78" t="s">
         <v>257</v>
       </c>
-      <c r="K78">
+      <c r="H78">
         <v>7</v>
       </c>
-      <c r="L78" s="8"/>
-    </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I78" s="8"/>
+    </row>
+    <row r="79" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>258</v>
       </c>
@@ -3634,16 +3529,18 @@
       <c r="D79" t="s">
         <v>9</v>
       </c>
-      <c r="G79"/>
-      <c r="J79" t="s">
+      <c r="E79" t="s">
+        <v>276</v>
+      </c>
+      <c r="G79" t="s">
         <v>260</v>
       </c>
-      <c r="K79">
-        <v>9</v>
-      </c>
-      <c r="L79" s="8"/>
-    </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H79">
+        <v>9</v>
+      </c>
+      <c r="I79" s="8"/>
+    </row>
+    <row r="80" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>261</v>
       </c>
@@ -3656,23 +3553,25 @@
       <c r="D80" t="s">
         <v>37</v>
       </c>
-      <c r="G80"/>
-      <c r="J80" t="s">
+      <c r="E80" t="s">
+        <v>277</v>
+      </c>
+      <c r="G80" t="s">
         <v>264</v>
       </c>
-      <c r="K80">
+      <c r="H80">
         <v>3</v>
       </c>
-      <c r="L80" s="8"/>
+      <c r="I80" s="8"/>
     </row>
     <row r="83" spans="1:3" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A83" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="10" t="s">
-        <v>272</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>

--- a/info/Plantilla_organizacion.xlsx
+++ b/info/Plantilla_organizacion.xlsx
@@ -1753,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/info/Plantilla_organizacion.xlsx
+++ b/info/Plantilla_organizacion.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="287">
   <si>
     <t>variable</t>
   </si>
@@ -853,6 +853,33 @@
   </si>
   <si>
     <t>count</t>
+  </si>
+  <si>
+    <t>nominal_comment</t>
+  </si>
+  <si>
+    <t>ordinal_comment</t>
+  </si>
+  <si>
+    <t>numerico_comment</t>
+  </si>
+  <si>
+    <t>tiempo_comment</t>
+  </si>
+  <si>
+    <t>count_comment</t>
+  </si>
+  <si>
+    <t>binario_comment</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>10,1</t>
+  </si>
+  <si>
+    <t>10,0</t>
   </si>
 </sst>
 </file>
@@ -1438,14 +1465,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:H80" totalsRowShown="0">
-  <autoFilter ref="A1:H80"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:N80" totalsRowShown="0">
+  <autoFilter ref="A1:N80">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="tiempo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="14">
     <tableColumn id="1" name="variable"/>
     <tableColumn id="2" name="definicion"/>
     <tableColumn id="3" name="descripcion"/>
     <tableColumn id="4" name="tipo"/>
     <tableColumn id="7" name="clase"/>
+    <tableColumn id="12" name="nominal_comment"/>
+    <tableColumn id="15" name="tiempo_comment"/>
+    <tableColumn id="17" name="binario_comment"/>
+    <tableColumn id="16" name="count_comment"/>
+    <tableColumn id="13" name="ordinal_comment"/>
+    <tableColumn id="14" name="numerico_comment"/>
     <tableColumn id="8" name="nan defaut"/>
     <tableColumn id="5" name="espectativa"/>
     <tableColumn id="6" name="importancia"/>
@@ -1751,10 +1790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,11 +1802,15 @@
     <col min="2" max="2" width="55.42578125" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" customWidth="1"/>
     <col min="4" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1784,17 +1827,35 @@
         <v>269</v>
       </c>
       <c r="F1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1" t="s">
+        <v>282</v>
+      </c>
+      <c r="J1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L1" t="s">
         <v>265</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1810,18 +1871,18 @@
       <c r="E2" t="s">
         <v>272</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>268</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="N2">
         <v>10</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1837,15 +1898,15 @@
       <c r="E3" t="s">
         <v>272</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
         <v>14</v>
       </c>
-      <c r="H3">
+      <c r="N3">
         <v>7</v>
       </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1858,15 +1919,15 @@
       <c r="E4" t="s">
         <v>274</v>
       </c>
-      <c r="G4" t="s">
+      <c r="M4" t="s">
         <v>17</v>
       </c>
-      <c r="H4">
+      <c r="N4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1882,17 +1943,17 @@
       <c r="E5" t="s">
         <v>273</v>
       </c>
-      <c r="G5" t="s">
+      <c r="M5" t="s">
         <v>22</v>
       </c>
-      <c r="H5">
+      <c r="N5">
         <v>2</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1908,15 +1969,15 @@
       <c r="E6" t="s">
         <v>274</v>
       </c>
-      <c r="G6" t="s">
+      <c r="M6" t="s">
         <v>27</v>
       </c>
-      <c r="H6">
+      <c r="N6">
         <v>1</v>
       </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1932,15 +1993,15 @@
       <c r="E7" t="s">
         <v>272</v>
       </c>
-      <c r="G7" t="s">
+      <c r="M7" t="s">
         <v>31</v>
       </c>
-      <c r="H7">
+      <c r="N7">
         <v>3</v>
       </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1953,15 +2014,15 @@
       <c r="E8" t="s">
         <v>274</v>
       </c>
-      <c r="G8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="N8">
+        <v>9</v>
+      </c>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1975,16 +2036,19 @@
         <v>275</v>
       </c>
       <c r="G9" t="s">
+        <v>284</v>
+      </c>
+      <c r="M9" t="s">
         <v>38</v>
       </c>
-      <c r="H9">
+      <c r="N9">
         <v>1</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1998,16 +2062,19 @@
         <v>275</v>
       </c>
       <c r="G10" t="s">
+        <v>285</v>
+      </c>
+      <c r="M10" t="s">
         <v>38</v>
       </c>
-      <c r="H10">
+      <c r="N10">
         <v>1</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -2020,15 +2087,15 @@
       <c r="E11" t="s">
         <v>272</v>
       </c>
-      <c r="G11" t="s">
+      <c r="M11" t="s">
         <v>45</v>
       </c>
-      <c r="H11">
+      <c r="N11">
         <v>4</v>
       </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2041,15 +2108,15 @@
       <c r="E12" t="s">
         <v>274</v>
       </c>
-      <c r="G12" t="s">
+      <c r="M12" t="s">
         <v>45</v>
       </c>
-      <c r="H12">
+      <c r="N12">
         <v>4</v>
       </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -2065,15 +2132,15 @@
       <c r="E13" t="s">
         <v>274</v>
       </c>
-      <c r="G13" t="s">
+      <c r="M13" t="s">
         <v>51</v>
       </c>
-      <c r="H13">
+      <c r="N13">
         <v>6</v>
       </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2089,15 +2156,15 @@
       <c r="E14" t="s">
         <v>274</v>
       </c>
-      <c r="G14" t="s">
+      <c r="M14" t="s">
         <v>55</v>
       </c>
-      <c r="H14">
+      <c r="N14">
         <v>10</v>
       </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2114,14 +2181,17 @@
         <v>275</v>
       </c>
       <c r="G15" t="s">
+        <v>286</v>
+      </c>
+      <c r="M15" t="s">
         <v>59</v>
       </c>
-      <c r="H15">
+      <c r="N15">
         <v>5</v>
       </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -2138,14 +2208,17 @@
         <v>275</v>
       </c>
       <c r="G16" t="s">
+        <v>285</v>
+      </c>
+      <c r="M16" t="s">
         <v>63</v>
       </c>
-      <c r="H16">
+      <c r="N16">
         <v>3</v>
       </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -2161,17 +2234,17 @@
       <c r="E17" t="s">
         <v>274</v>
       </c>
-      <c r="G17" t="s">
+      <c r="M17" t="s">
         <v>67</v>
       </c>
-      <c r="H17">
+      <c r="N17">
         <v>10</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -2184,15 +2257,15 @@
       <c r="E18" t="s">
         <v>274</v>
       </c>
-      <c r="G18" t="s">
+      <c r="M18" t="s">
         <v>71</v>
       </c>
-      <c r="H18">
-        <v>9</v>
-      </c>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="N18">
+        <v>9</v>
+      </c>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -2206,14 +2279,17 @@
         <v>275</v>
       </c>
       <c r="G19" t="s">
+        <v>285</v>
+      </c>
+      <c r="M19" t="s">
         <v>74</v>
       </c>
-      <c r="H19">
+      <c r="N19">
         <v>3</v>
       </c>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -2226,15 +2302,15 @@
       <c r="E20" t="s">
         <v>274</v>
       </c>
-      <c r="F20" t="s">
+      <c r="L20" t="s">
         <v>266</v>
       </c>
-      <c r="H20">
+      <c r="N20">
         <v>6</v>
       </c>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -2250,15 +2326,15 @@
       <c r="E21" t="s">
         <v>274</v>
       </c>
-      <c r="G21" t="s">
+      <c r="M21" t="s">
         <v>80</v>
       </c>
-      <c r="H21">
+      <c r="N21">
         <v>8</v>
       </c>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2271,15 +2347,15 @@
       <c r="E22" t="s">
         <v>274</v>
       </c>
-      <c r="G22" t="s">
+      <c r="M22" t="s">
         <v>83</v>
       </c>
-      <c r="H22">
+      <c r="N22">
         <v>5.8</v>
       </c>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -2295,15 +2371,15 @@
       <c r="E23" t="s">
         <v>272</v>
       </c>
-      <c r="G23" t="s">
+      <c r="M23" t="s">
         <v>87</v>
       </c>
-      <c r="H23">
+      <c r="N23">
         <v>7.5</v>
       </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -2319,17 +2395,17 @@
       <c r="E24" t="s">
         <v>272</v>
       </c>
-      <c r="G24" t="s">
+      <c r="M24" t="s">
         <v>91</v>
       </c>
-      <c r="H24">
+      <c r="N24">
         <v>8</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="O24" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -2345,15 +2421,15 @@
       <c r="E25" t="s">
         <v>272</v>
       </c>
-      <c r="G25" t="s">
+      <c r="M25" t="s">
         <v>96</v>
       </c>
-      <c r="H25">
-        <v>9</v>
-      </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="N25">
+        <v>9</v>
+      </c>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -2369,15 +2445,15 @@
       <c r="E26" t="s">
         <v>272</v>
       </c>
-      <c r="G26" t="s">
+      <c r="M26" t="s">
         <v>99</v>
       </c>
-      <c r="H26">
+      <c r="N26">
         <v>10</v>
       </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -2393,15 +2469,15 @@
       <c r="E27" t="s">
         <v>272</v>
       </c>
-      <c r="G27" t="s">
+      <c r="M27" t="s">
         <v>103</v>
       </c>
-      <c r="H27">
+      <c r="N27">
         <v>8</v>
       </c>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2417,18 +2493,18 @@
       <c r="E28" t="s">
         <v>272</v>
       </c>
-      <c r="F28" t="b">
+      <c r="L28" t="b">
         <v>1</v>
       </c>
-      <c r="G28" t="s">
+      <c r="M28" t="s">
         <v>107</v>
       </c>
-      <c r="H28">
-        <v>9</v>
-      </c>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="N28">
+        <v>9</v>
+      </c>
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -2444,17 +2520,17 @@
       <c r="E29" t="s">
         <v>274</v>
       </c>
-      <c r="G29" t="s">
+      <c r="M29" t="s">
         <v>111</v>
       </c>
-      <c r="H29">
+      <c r="N29">
         <v>4</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="O29" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -2470,15 +2546,15 @@
       <c r="E30" t="s">
         <v>272</v>
       </c>
-      <c r="G30" t="s">
+      <c r="M30" t="s">
         <v>116</v>
       </c>
-      <c r="H30">
+      <c r="N30">
         <v>2</v>
       </c>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -2491,15 +2567,15 @@
       <c r="E31" t="s">
         <v>272</v>
       </c>
-      <c r="G31" t="s">
+      <c r="M31" t="s">
         <v>119</v>
       </c>
-      <c r="H31">
+      <c r="N31">
         <v>3</v>
       </c>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -2512,15 +2588,15 @@
       <c r="E32" t="s">
         <v>274</v>
       </c>
-      <c r="G32" t="s">
+      <c r="M32" t="s">
         <v>122</v>
       </c>
-      <c r="H32">
+      <c r="N32">
         <v>7</v>
       </c>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>123</v>
       </c>
@@ -2533,15 +2609,15 @@
       <c r="E33" t="s">
         <v>272</v>
       </c>
-      <c r="G33" t="s">
+      <c r="M33" t="s">
         <v>125</v>
       </c>
-      <c r="H33">
+      <c r="N33">
         <v>7</v>
       </c>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O33" s="7"/>
+    </row>
+    <row r="34" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -2557,15 +2633,15 @@
       <c r="E34" t="s">
         <v>272</v>
       </c>
-      <c r="G34" t="s">
+      <c r="M34" t="s">
         <v>129</v>
       </c>
-      <c r="H34">
+      <c r="N34">
         <v>4</v>
       </c>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>130</v>
       </c>
@@ -2581,15 +2657,15 @@
       <c r="E35" t="s">
         <v>272</v>
       </c>
-      <c r="G35" t="s">
+      <c r="M35" t="s">
         <v>129</v>
       </c>
-      <c r="H35">
+      <c r="N35">
         <v>3</v>
       </c>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>132</v>
       </c>
@@ -2605,15 +2681,15 @@
       <c r="E36" t="s">
         <v>272</v>
       </c>
-      <c r="G36" t="s">
+      <c r="M36" t="s">
         <v>135</v>
       </c>
-      <c r="H36">
+      <c r="N36">
         <v>6</v>
       </c>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>136</v>
       </c>
@@ -2629,15 +2705,15 @@
       <c r="E37" t="s">
         <v>273</v>
       </c>
-      <c r="G37" t="s">
+      <c r="M37" t="s">
         <v>135</v>
       </c>
-      <c r="H37">
+      <c r="N37">
         <v>7</v>
       </c>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>139</v>
       </c>
@@ -2650,15 +2726,15 @@
       <c r="E38" t="s">
         <v>274</v>
       </c>
-      <c r="G38" t="s">
+      <c r="M38" t="s">
         <v>141</v>
       </c>
-      <c r="H38">
+      <c r="N38">
         <v>5</v>
       </c>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>142</v>
       </c>
@@ -2671,15 +2747,15 @@
       <c r="E39" t="s">
         <v>272</v>
       </c>
-      <c r="G39" t="s">
+      <c r="M39" t="s">
         <v>144</v>
       </c>
-      <c r="H39">
+      <c r="N39">
         <v>8.5</v>
       </c>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -2692,17 +2768,17 @@
       <c r="E40" t="s">
         <v>273</v>
       </c>
-      <c r="G40" t="s">
+      <c r="M40" t="s">
         <v>147</v>
       </c>
-      <c r="H40">
+      <c r="N40">
         <v>6</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="O40" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -2715,17 +2791,17 @@
       <c r="E41" t="s">
         <v>274</v>
       </c>
-      <c r="G41" t="s">
+      <c r="M41" t="s">
         <v>151</v>
       </c>
-      <c r="H41">
+      <c r="N41">
         <v>7</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="O41" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -2738,12 +2814,12 @@
       <c r="E42" t="s">
         <v>274</v>
       </c>
-      <c r="H42">
+      <c r="N42">
         <v>3</v>
       </c>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O42" s="7"/>
+    </row>
+    <row r="43" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>155</v>
       </c>
@@ -2756,15 +2832,15 @@
       <c r="E43" t="s">
         <v>274</v>
       </c>
-      <c r="F43" t="s">
+      <c r="L43" t="s">
         <v>267</v>
       </c>
-      <c r="H43">
+      <c r="N43">
         <v>4</v>
       </c>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O43" s="7"/>
+    </row>
+    <row r="44" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>157</v>
       </c>
@@ -2777,15 +2853,15 @@
       <c r="E44" t="s">
         <v>273</v>
       </c>
-      <c r="G44" t="s">
+      <c r="M44" t="s">
         <v>159</v>
       </c>
-      <c r="H44">
+      <c r="N44">
         <v>4</v>
       </c>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O44" s="7"/>
+    </row>
+    <row r="45" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>160</v>
       </c>
@@ -2798,15 +2874,15 @@
       <c r="E45" t="s">
         <v>274</v>
       </c>
-      <c r="F45" t="b">
+      <c r="L45" t="b">
         <v>1</v>
       </c>
-      <c r="H45">
+      <c r="N45">
         <v>10</v>
       </c>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O45" s="7"/>
+    </row>
+    <row r="46" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>162</v>
       </c>
@@ -2819,18 +2895,18 @@
       <c r="E46" t="s">
         <v>274</v>
       </c>
-      <c r="F46" t="b">
+      <c r="L46" t="b">
         <v>1</v>
       </c>
-      <c r="G46" t="s">
+      <c r="M46" t="s">
         <v>164</v>
       </c>
-      <c r="H46">
+      <c r="N46">
         <v>4</v>
       </c>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O46" s="7"/>
+    </row>
+    <row r="47" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>165</v>
       </c>
@@ -2843,15 +2919,15 @@
       <c r="E47" t="s">
         <v>274</v>
       </c>
-      <c r="F47" t="b">
+      <c r="L47" t="b">
         <v>1</v>
       </c>
-      <c r="H47">
+      <c r="N47">
         <v>7</v>
       </c>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O47" s="7"/>
+    </row>
+    <row r="48" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>167</v>
       </c>
@@ -2864,15 +2940,15 @@
       <c r="E48" t="s">
         <v>274</v>
       </c>
-      <c r="G48" t="s">
+      <c r="M48" t="s">
         <v>169</v>
       </c>
-      <c r="H48">
+      <c r="N48">
         <v>10</v>
       </c>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O48" s="7"/>
+    </row>
+    <row r="49" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>170</v>
       </c>
@@ -2885,15 +2961,15 @@
       <c r="E49" t="s">
         <v>272</v>
       </c>
-      <c r="G49" t="s">
+      <c r="M49" t="s">
         <v>172</v>
       </c>
-      <c r="H49">
+      <c r="N49">
         <v>10</v>
       </c>
-      <c r="I49" s="7"/>
-    </row>
-    <row r="50" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O49" s="7"/>
+    </row>
+    <row r="50" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>173</v>
       </c>
@@ -2909,15 +2985,15 @@
       <c r="E50" t="s">
         <v>273</v>
       </c>
-      <c r="G50" t="s">
+      <c r="M50" t="s">
         <v>176</v>
       </c>
-      <c r="H50">
+      <c r="N50">
         <v>5.5</v>
       </c>
-      <c r="I50" s="8"/>
-    </row>
-    <row r="51" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O50" s="8"/>
+    </row>
+    <row r="51" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>177</v>
       </c>
@@ -2933,15 +3009,15 @@
       <c r="E51" t="s">
         <v>272</v>
       </c>
-      <c r="G51" t="s">
+      <c r="M51" t="s">
         <v>180</v>
       </c>
-      <c r="H51">
+      <c r="N51">
         <v>10</v>
       </c>
-      <c r="I51" s="8"/>
-    </row>
-    <row r="52" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O51" s="8"/>
+    </row>
+    <row r="52" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>181</v>
       </c>
@@ -2957,15 +3033,15 @@
       <c r="E52" t="s">
         <v>274</v>
       </c>
-      <c r="G52" t="s">
+      <c r="M52" t="s">
         <v>184</v>
       </c>
-      <c r="H52">
+      <c r="N52">
         <v>2</v>
       </c>
-      <c r="I52" s="8"/>
-    </row>
-    <row r="53" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O52" s="8"/>
+    </row>
+    <row r="53" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>185</v>
       </c>
@@ -2981,15 +3057,15 @@
       <c r="E53" t="s">
         <v>272</v>
       </c>
-      <c r="G53" t="s">
+      <c r="M53" t="s">
         <v>188</v>
       </c>
-      <c r="H53">
+      <c r="N53">
         <v>8</v>
       </c>
-      <c r="I53" s="8"/>
-    </row>
-    <row r="54" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O53" s="8"/>
+    </row>
+    <row r="54" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>189</v>
       </c>
@@ -3002,15 +3078,15 @@
       <c r="E54" t="s">
         <v>273</v>
       </c>
-      <c r="G54" t="s">
+      <c r="M54" t="s">
         <v>191</v>
       </c>
-      <c r="H54">
+      <c r="N54">
         <v>10</v>
       </c>
-      <c r="I54" s="8"/>
-    </row>
-    <row r="55" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O54" s="8"/>
+    </row>
+    <row r="55" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>192</v>
       </c>
@@ -3023,15 +3099,15 @@
       <c r="E55" t="s">
         <v>273</v>
       </c>
-      <c r="G55" t="s">
+      <c r="M55" t="s">
         <v>191</v>
       </c>
-      <c r="H55">
+      <c r="N55">
         <v>10</v>
       </c>
-      <c r="I55" s="8"/>
-    </row>
-    <row r="56" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O55" s="8"/>
+    </row>
+    <row r="56" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>194</v>
       </c>
@@ -3044,15 +3120,15 @@
       <c r="E56" t="s">
         <v>277</v>
       </c>
-      <c r="G56" t="s">
+      <c r="M56" t="s">
         <v>196</v>
       </c>
-      <c r="H56">
+      <c r="N56">
         <v>10</v>
       </c>
-      <c r="I56" s="8"/>
-    </row>
-    <row r="57" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O56" s="8"/>
+    </row>
+    <row r="57" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>197</v>
       </c>
@@ -3065,15 +3141,15 @@
       <c r="E57" t="s">
         <v>277</v>
       </c>
-      <c r="G57" t="s">
+      <c r="M57" t="s">
         <v>199</v>
       </c>
-      <c r="H57">
+      <c r="N57">
         <v>10</v>
       </c>
-      <c r="I57" s="8"/>
-    </row>
-    <row r="58" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O57" s="8"/>
+    </row>
+    <row r="58" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>200</v>
       </c>
@@ -3089,15 +3165,15 @@
       <c r="E58" t="s">
         <v>277</v>
       </c>
-      <c r="G58" t="s">
+      <c r="M58" t="s">
         <v>202</v>
       </c>
-      <c r="H58">
+      <c r="N58">
         <v>10</v>
       </c>
-      <c r="I58" s="8"/>
-    </row>
-    <row r="59" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O58" s="8"/>
+    </row>
+    <row r="59" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -3113,15 +3189,15 @@
       <c r="E59" t="s">
         <v>277</v>
       </c>
-      <c r="G59" t="s">
+      <c r="M59" t="s">
         <v>206</v>
       </c>
-      <c r="H59">
+      <c r="N59">
         <v>10</v>
       </c>
-      <c r="I59" s="8"/>
-    </row>
-    <row r="60" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O59" s="8"/>
+    </row>
+    <row r="60" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>207</v>
       </c>
@@ -3134,9 +3210,9 @@
       <c r="E60" t="s">
         <v>273</v>
       </c>
-      <c r="I60" s="8"/>
-    </row>
-    <row r="61" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O60" s="8"/>
+    </row>
+    <row r="61" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>209</v>
       </c>
@@ -3149,15 +3225,15 @@
       <c r="E61" t="s">
         <v>273</v>
       </c>
-      <c r="G61" t="s">
+      <c r="M61" t="s">
         <v>211</v>
       </c>
-      <c r="H61">
-        <v>9</v>
-      </c>
-      <c r="I61" s="8"/>
-    </row>
-    <row r="62" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="N61">
+        <v>9</v>
+      </c>
+      <c r="O61" s="8"/>
+    </row>
+    <row r="62" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>212</v>
       </c>
@@ -3170,12 +3246,12 @@
       <c r="E62" t="s">
         <v>273</v>
       </c>
-      <c r="H62">
-        <v>9</v>
-      </c>
-      <c r="I62" s="8"/>
-    </row>
-    <row r="63" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="N62">
+        <v>9</v>
+      </c>
+      <c r="O62" s="8"/>
+    </row>
+    <row r="63" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>214</v>
       </c>
@@ -3188,15 +3264,15 @@
       <c r="E63" t="s">
         <v>273</v>
       </c>
-      <c r="G63" t="s">
+      <c r="M63" t="s">
         <v>216</v>
       </c>
-      <c r="H63">
+      <c r="N63">
         <v>10</v>
       </c>
-      <c r="I63" s="8"/>
-    </row>
-    <row r="64" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O63" s="8"/>
+    </row>
+    <row r="64" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>217</v>
       </c>
@@ -3212,18 +3288,18 @@
       <c r="E64" t="s">
         <v>272</v>
       </c>
-      <c r="F64" t="b">
+      <c r="L64" t="b">
         <v>1</v>
       </c>
-      <c r="G64" t="s">
+      <c r="M64" t="s">
         <v>219</v>
       </c>
-      <c r="H64">
+      <c r="N64">
         <v>10</v>
       </c>
-      <c r="I64" s="8"/>
-    </row>
-    <row r="65" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O64" s="8"/>
+    </row>
+    <row r="65" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>220</v>
       </c>
@@ -3233,11 +3309,11 @@
       <c r="E65" t="s">
         <v>273</v>
       </c>
-      <c r="I65" s="8" t="s">
+      <c r="O65" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>223</v>
       </c>
@@ -3253,15 +3329,15 @@
       <c r="E66" t="s">
         <v>273</v>
       </c>
-      <c r="G66" t="s">
+      <c r="M66" t="s">
         <v>226</v>
       </c>
-      <c r="H66">
+      <c r="N66">
         <v>8</v>
       </c>
-      <c r="I66" s="8"/>
-    </row>
-    <row r="67" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O66" s="8"/>
+    </row>
+    <row r="67" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>227</v>
       </c>
@@ -3277,15 +3353,15 @@
       <c r="E67" t="s">
         <v>273</v>
       </c>
-      <c r="G67" t="s">
+      <c r="M67" t="s">
         <v>226</v>
       </c>
-      <c r="H67">
+      <c r="N67">
         <v>8</v>
       </c>
-      <c r="I67" s="8"/>
-    </row>
-    <row r="68" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O67" s="8"/>
+    </row>
+    <row r="68" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>229</v>
       </c>
@@ -3298,15 +3374,15 @@
       <c r="E68" t="s">
         <v>273</v>
       </c>
-      <c r="G68" t="s">
+      <c r="M68" t="s">
         <v>231</v>
       </c>
-      <c r="H68">
+      <c r="N68">
         <v>10</v>
       </c>
-      <c r="I68" s="8"/>
-    </row>
-    <row r="69" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O68" s="8"/>
+    </row>
+    <row r="69" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -3322,15 +3398,15 @@
       <c r="E69" t="s">
         <v>277</v>
       </c>
-      <c r="G69" t="s">
+      <c r="M69" t="s">
         <v>234</v>
       </c>
-      <c r="H69">
+      <c r="N69">
         <v>8</v>
       </c>
-      <c r="I69" s="8"/>
-    </row>
-    <row r="70" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O69" s="8"/>
+    </row>
+    <row r="70" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>235</v>
       </c>
@@ -3346,15 +3422,15 @@
       <c r="E70" t="s">
         <v>277</v>
       </c>
-      <c r="G70" t="s">
+      <c r="M70" t="s">
         <v>237</v>
       </c>
-      <c r="H70">
-        <v>9</v>
-      </c>
-      <c r="I70" s="8"/>
-    </row>
-    <row r="71" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="N70">
+        <v>9</v>
+      </c>
+      <c r="O70" s="8"/>
+    </row>
+    <row r="71" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>238</v>
       </c>
@@ -3367,15 +3443,15 @@
       <c r="E71" t="s">
         <v>273</v>
       </c>
-      <c r="G71" t="s">
+      <c r="M71" t="s">
         <v>240</v>
       </c>
-      <c r="H71">
+      <c r="N71">
         <v>10</v>
       </c>
-      <c r="I71" s="8"/>
-    </row>
-    <row r="72" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O71" s="8"/>
+    </row>
+    <row r="72" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>241</v>
       </c>
@@ -3391,15 +3467,15 @@
       <c r="E72" t="s">
         <v>274</v>
       </c>
-      <c r="G72" t="s">
+      <c r="M72" t="s">
         <v>244</v>
       </c>
-      <c r="H72">
-        <v>9</v>
-      </c>
-      <c r="I72" s="8"/>
-    </row>
-    <row r="73" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="N72">
+        <v>9</v>
+      </c>
+      <c r="O72" s="8"/>
+    </row>
+    <row r="73" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>245</v>
       </c>
@@ -3412,15 +3488,15 @@
       <c r="E73" t="s">
         <v>274</v>
       </c>
-      <c r="G73" t="s">
+      <c r="M73" t="s">
         <v>244</v>
       </c>
-      <c r="H73">
-        <v>9</v>
-      </c>
-      <c r="I73" s="8"/>
-    </row>
-    <row r="74" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="N73">
+        <v>9</v>
+      </c>
+      <c r="O73" s="8"/>
+    </row>
+    <row r="74" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>247</v>
       </c>
@@ -3433,15 +3509,15 @@
       <c r="E74" t="s">
         <v>273</v>
       </c>
-      <c r="G74" t="s">
+      <c r="M74" t="s">
         <v>249</v>
       </c>
-      <c r="H74">
+      <c r="N74">
         <v>6</v>
       </c>
-      <c r="I74" s="8"/>
-    </row>
-    <row r="75" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O74" s="8"/>
+    </row>
+    <row r="75" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>250</v>
       </c>
@@ -3454,15 +3530,15 @@
       <c r="E75" t="s">
         <v>273</v>
       </c>
-      <c r="G75" t="s">
+      <c r="M75" t="s">
         <v>249</v>
       </c>
-      <c r="H75">
+      <c r="N75">
         <v>7</v>
       </c>
-      <c r="I75" s="8"/>
-    </row>
-    <row r="76" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O75" s="8"/>
+    </row>
+    <row r="76" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>252</v>
       </c>
@@ -3475,12 +3551,12 @@
       <c r="E76" t="s">
         <v>273</v>
       </c>
-      <c r="H76">
+      <c r="N76">
         <v>8</v>
       </c>
-      <c r="I76" s="8"/>
-    </row>
-    <row r="77" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O76" s="8"/>
+    </row>
+    <row r="77" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>253</v>
       </c>
@@ -3493,12 +3569,12 @@
       <c r="E77" t="s">
         <v>273</v>
       </c>
-      <c r="H77">
+      <c r="N77">
         <v>8</v>
       </c>
-      <c r="I77" s="8"/>
-    </row>
-    <row r="78" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O77" s="8"/>
+    </row>
+    <row r="78" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>255</v>
       </c>
@@ -3511,15 +3587,15 @@
       <c r="E78" t="s">
         <v>277</v>
       </c>
-      <c r="G78" t="s">
+      <c r="M78" t="s">
         <v>257</v>
       </c>
-      <c r="H78">
+      <c r="N78">
         <v>7</v>
       </c>
-      <c r="I78" s="8"/>
-    </row>
-    <row r="79" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="O78" s="8"/>
+    </row>
+    <row r="79" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>258</v>
       </c>
@@ -3532,15 +3608,15 @@
       <c r="E79" t="s">
         <v>276</v>
       </c>
-      <c r="G79" t="s">
+      <c r="M79" t="s">
         <v>260</v>
       </c>
-      <c r="H79">
-        <v>9</v>
-      </c>
-      <c r="I79" s="8"/>
-    </row>
-    <row r="80" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="N79">
+        <v>9</v>
+      </c>
+      <c r="O79" s="8"/>
+    </row>
+    <row r="80" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>261</v>
       </c>
@@ -3556,13 +3632,13 @@
       <c r="E80" t="s">
         <v>277</v>
       </c>
-      <c r="G80" t="s">
+      <c r="M80" t="s">
         <v>264</v>
       </c>
-      <c r="H80">
+      <c r="N80">
         <v>3</v>
       </c>
-      <c r="I80" s="8"/>
+      <c r="O80" s="8"/>
     </row>
     <row r="83" spans="1:3" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A83" s="9" t="s">
